--- a/invoice_to_excel_sigma_cerveza.xlsx
+++ b/invoice_to_excel_sigma_cerveza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvdc\Unidad Personal\glorenzo\Documents\UiPath\carga_comprobantes_sigma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880C0251-82CC-4E1D-9C6C-2AB9C802F9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1586B3E-3A40-4653-9B65-C7A1485C7F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="164">
   <si>
     <t>Numero de Factura</t>
   </si>
@@ -85,9 +85,6 @@
     <t>sucursal sigma</t>
   </si>
   <si>
-    <t>08/06/2023</t>
-  </si>
-  <si>
     <t>LARREA 716, 1900 - La Plata - Buenos Aires</t>
   </si>
   <si>
@@ -118,205 +115,418 @@
     <t>LPAD</t>
   </si>
   <si>
-    <t>0306-00142374</t>
-  </si>
-  <si>
-    <t>0306-00142375</t>
-  </si>
-  <si>
-    <t>0306-00142377</t>
-  </si>
-  <si>
-    <t>0306-00142376</t>
-  </si>
-  <si>
-    <t>0306-00142378</t>
-  </si>
-  <si>
-    <t>0306-00142379</t>
-  </si>
-  <si>
-    <t>0306-00142380</t>
-  </si>
-  <si>
-    <t>0306-00142381</t>
-  </si>
-  <si>
-    <t>0306-00142383</t>
-  </si>
-  <si>
-    <t>0306-00142382</t>
-  </si>
-  <si>
-    <t>0306-00142384</t>
-  </si>
-  <si>
-    <t>0306-00142385</t>
-  </si>
-  <si>
-    <t>0306-00142386</t>
-  </si>
-  <si>
-    <t>0306-00142387</t>
-  </si>
-  <si>
-    <t>0306-00142389</t>
-  </si>
-  <si>
-    <t>0306-00142388</t>
-  </si>
-  <si>
-    <t>0306-00142390</t>
-  </si>
-  <si>
-    <t>0306-00142391</t>
-  </si>
-  <si>
-    <t>0306-00142395</t>
-  </si>
-  <si>
-    <t>0306-00142396</t>
-  </si>
-  <si>
-    <t>0306-00142397</t>
-  </si>
-  <si>
-    <t>0306-00142398</t>
-  </si>
-  <si>
-    <t>0306-00142399</t>
-  </si>
-  <si>
-    <t>0306-00142400</t>
-  </si>
-  <si>
-    <t>0306-00142402</t>
-  </si>
-  <si>
-    <t>0306-00142401</t>
-  </si>
-  <si>
-    <t>0306-00142403</t>
-  </si>
-  <si>
-    <t>0306-00142405</t>
-  </si>
-  <si>
-    <t>0306-00142404</t>
-  </si>
-  <si>
-    <t>0306-00142406</t>
-  </si>
-  <si>
-    <t>0306-00142407</t>
-  </si>
-  <si>
-    <t>0306-00142408</t>
-  </si>
-  <si>
-    <t>0306-00142410</t>
-  </si>
-  <si>
-    <t>0306-00142392</t>
-  </si>
-  <si>
-    <t>0306-00142393</t>
-  </si>
-  <si>
-    <t>0306-00142394</t>
-  </si>
-  <si>
-    <t>0306-00142409</t>
-  </si>
-  <si>
-    <t>0306-00142411</t>
-  </si>
-  <si>
-    <t>0306-00142413</t>
-  </si>
-  <si>
-    <t>0306-00142440</t>
-  </si>
-  <si>
-    <t>0306-00142438</t>
-  </si>
-  <si>
-    <t>0306-00142439</t>
-  </si>
-  <si>
-    <t>0306-00142437</t>
-  </si>
-  <si>
-    <t>0306-00142435</t>
-  </si>
-  <si>
-    <t>0306-00142436</t>
-  </si>
-  <si>
-    <t>0306-00142433</t>
-  </si>
-  <si>
-    <t>0306-00142432</t>
-  </si>
-  <si>
-    <t>0306-00142434</t>
-  </si>
-  <si>
-    <t>0306-00142431</t>
-  </si>
-  <si>
-    <t>0306-00142430</t>
-  </si>
-  <si>
-    <t>0306-00142429</t>
-  </si>
-  <si>
-    <t>0306-00142428</t>
-  </si>
-  <si>
-    <t>0306-00142427</t>
-  </si>
-  <si>
-    <t>0306-00142426</t>
-  </si>
-  <si>
-    <t>0306-00142425</t>
-  </si>
-  <si>
-    <t>0306-00142424</t>
-  </si>
-  <si>
-    <t>0306-00142423</t>
-  </si>
-  <si>
-    <t>0306-00142422</t>
-  </si>
-  <si>
-    <t>0306-00142421</t>
-  </si>
-  <si>
-    <t>0306-00142420</t>
-  </si>
-  <si>
-    <t>0306-00142419</t>
-  </si>
-  <si>
-    <t>0306-00142418</t>
-  </si>
-  <si>
-    <t>0306-00142416</t>
-  </si>
-  <si>
-    <t>0306-00142415</t>
-  </si>
-  <si>
-    <t>0306-00142417</t>
-  </si>
-  <si>
-    <t>0306-00142412</t>
-  </si>
-  <si>
-    <t>0306-00142414</t>
+    <t>0305-00145229</t>
+  </si>
+  <si>
+    <t>11/07/2023</t>
+  </si>
+  <si>
+    <t>0305-00145230</t>
+  </si>
+  <si>
+    <t>0305-00145232</t>
+  </si>
+  <si>
+    <t>0305-00145231</t>
+  </si>
+  <si>
+    <t>0305-00145233</t>
+  </si>
+  <si>
+    <t>0305-00145234</t>
+  </si>
+  <si>
+    <t>0305-00145235</t>
+  </si>
+  <si>
+    <t>0305-00145236</t>
+  </si>
+  <si>
+    <t>0305-00145237</t>
+  </si>
+  <si>
+    <t>0305-00145238</t>
+  </si>
+  <si>
+    <t>0305-00145240</t>
+  </si>
+  <si>
+    <t>0305-00145239</t>
+  </si>
+  <si>
+    <t>0305-00145241</t>
+  </si>
+  <si>
+    <t>0305-00145242</t>
+  </si>
+  <si>
+    <t>0305-00145243</t>
+  </si>
+  <si>
+    <t>0305-00145244</t>
+  </si>
+  <si>
+    <t>0305-00145245</t>
+  </si>
+  <si>
+    <t>0305-00145246</t>
+  </si>
+  <si>
+    <t>0305-00145248</t>
+  </si>
+  <si>
+    <t>0305-00145247</t>
+  </si>
+  <si>
+    <t>0305-00145251</t>
+  </si>
+  <si>
+    <t>0305-00145249</t>
+  </si>
+  <si>
+    <t>0305-00145250</t>
+  </si>
+  <si>
+    <t>0305-00145254</t>
+  </si>
+  <si>
+    <t>0305-00145252</t>
+  </si>
+  <si>
+    <t>0305-00145253</t>
+  </si>
+  <si>
+    <t>0305-00145255</t>
+  </si>
+  <si>
+    <t>0305-00146402</t>
+  </si>
+  <si>
+    <t>13/07/2023</t>
+  </si>
+  <si>
+    <t>0305-00146401</t>
+  </si>
+  <si>
+    <t>0305-00146403</t>
+  </si>
+  <si>
+    <t>0305-00146404</t>
+  </si>
+  <si>
+    <t>0305-00146405</t>
+  </si>
+  <si>
+    <t>0305-00146406</t>
+  </si>
+  <si>
+    <t>0305-00146410</t>
+  </si>
+  <si>
+    <t>0305-00146412</t>
+  </si>
+  <si>
+    <t>0305-00146411</t>
+  </si>
+  <si>
+    <t>0305-00146413</t>
+  </si>
+  <si>
+    <t>0305-00146601</t>
+  </si>
+  <si>
+    <t>0305-00146414</t>
+  </si>
+  <si>
+    <t>0305-00146602</t>
+  </si>
+  <si>
+    <t>0305-00146407</t>
+  </si>
+  <si>
+    <t>0305-00146409</t>
+  </si>
+  <si>
+    <t>0305-00146408</t>
+  </si>
+  <si>
+    <t>0305-00146417</t>
+  </si>
+  <si>
+    <t>0305-00146419</t>
+  </si>
+  <si>
+    <t>0305-00146418</t>
+  </si>
+  <si>
+    <t>0305-00146420</t>
+  </si>
+  <si>
+    <t>0305-00146421</t>
+  </si>
+  <si>
+    <t>0305-00146422</t>
+  </si>
+  <si>
+    <t>0305-00146423</t>
+  </si>
+  <si>
+    <t>0305-00146424</t>
+  </si>
+  <si>
+    <t>0305-00146415</t>
+  </si>
+  <si>
+    <t>0305-00146416</t>
+  </si>
+  <si>
+    <t>0305-00146321</t>
+  </si>
+  <si>
+    <t>0305-00146322</t>
+  </si>
+  <si>
+    <t>0305-00146323</t>
+  </si>
+  <si>
+    <t>0305-00146324</t>
+  </si>
+  <si>
+    <t>0305-00146326</t>
+  </si>
+  <si>
+    <t>0305-00146327</t>
+  </si>
+  <si>
+    <t>0305-00146325</t>
+  </si>
+  <si>
+    <t>0305-00146328</t>
+  </si>
+  <si>
+    <t>0305-00146329</t>
+  </si>
+  <si>
+    <t>0305-00146330</t>
+  </si>
+  <si>
+    <t>0305-00146332</t>
+  </si>
+  <si>
+    <t>0305-00146331</t>
+  </si>
+  <si>
+    <t>0305-00146335</t>
+  </si>
+  <si>
+    <t>0305-00146333</t>
+  </si>
+  <si>
+    <t>0305-00146334</t>
+  </si>
+  <si>
+    <t>0305-00146337</t>
+  </si>
+  <si>
+    <t>0305-00146336</t>
+  </si>
+  <si>
+    <t>0305-00146345</t>
+  </si>
+  <si>
+    <t>0305-00146346</t>
+  </si>
+  <si>
+    <t>0305-00146344</t>
+  </si>
+  <si>
+    <t>0305-00146348</t>
+  </si>
+  <si>
+    <t>0305-00146349</t>
+  </si>
+  <si>
+    <t>0305-00146347</t>
+  </si>
+  <si>
+    <t>0305-00146351</t>
+  </si>
+  <si>
+    <t>0305-00146350</t>
+  </si>
+  <si>
+    <t>0305-00146354</t>
+  </si>
+  <si>
+    <t>0305-00146355</t>
+  </si>
+  <si>
+    <t>0305-00146356</t>
+  </si>
+  <si>
+    <t>0305-00146357</t>
+  </si>
+  <si>
+    <t>0305-00146358</t>
+  </si>
+  <si>
+    <t>0305-00146359</t>
+  </si>
+  <si>
+    <t>0305-00146361</t>
+  </si>
+  <si>
+    <t>0305-00146360</t>
+  </si>
+  <si>
+    <t>0305-00146362</t>
+  </si>
+  <si>
+    <t>0305-00146339</t>
+  </si>
+  <si>
+    <t>0305-00146338</t>
+  </si>
+  <si>
+    <t>0305-00146340</t>
+  </si>
+  <si>
+    <t>0305-00146342</t>
+  </si>
+  <si>
+    <t>0305-00146343</t>
+  </si>
+  <si>
+    <t>0305-00146341</t>
+  </si>
+  <si>
+    <t>0305-00146353</t>
+  </si>
+  <si>
+    <t>0305-00146352</t>
+  </si>
+  <si>
+    <t>0305-00146364</t>
+  </si>
+  <si>
+    <t>0305-00146363</t>
+  </si>
+  <si>
+    <t>0305-00146365</t>
+  </si>
+  <si>
+    <t>0305-00146367</t>
+  </si>
+  <si>
+    <t>0305-00146366</t>
+  </si>
+  <si>
+    <t>0305-00146368</t>
+  </si>
+  <si>
+    <t>0305-00146369</t>
+  </si>
+  <si>
+    <t>0305-00146370</t>
+  </si>
+  <si>
+    <t>0305-00146371</t>
+  </si>
+  <si>
+    <t>0305-00146372</t>
+  </si>
+  <si>
+    <t>0305-00146373</t>
+  </si>
+  <si>
+    <t>0305-00146374</t>
+  </si>
+  <si>
+    <t>0305-00146375</t>
+  </si>
+  <si>
+    <t>0305-00146376</t>
+  </si>
+  <si>
+    <t>0305-00146377</t>
+  </si>
+  <si>
+    <t>0305-00146378</t>
+  </si>
+  <si>
+    <t>0305-00146379</t>
+  </si>
+  <si>
+    <t>0305-00146380</t>
+  </si>
+  <si>
+    <t>0305-00146381</t>
+  </si>
+  <si>
+    <t>0305-00146382</t>
+  </si>
+  <si>
+    <t>0305-00146383</t>
+  </si>
+  <si>
+    <t>0305-00146384</t>
+  </si>
+  <si>
+    <t>0305-00146385</t>
+  </si>
+  <si>
+    <t>0305-00146386</t>
+  </si>
+  <si>
+    <t>0305-00146387</t>
+  </si>
+  <si>
+    <t>0305-00146390</t>
+  </si>
+  <si>
+    <t>0305-00146388</t>
+  </si>
+  <si>
+    <t>0305-00146389</t>
+  </si>
+  <si>
+    <t>0305-00146600</t>
+  </si>
+  <si>
+    <t>0305-00146391</t>
+  </si>
+  <si>
+    <t>0305-00146392</t>
+  </si>
+  <si>
+    <t>0305-00146393</t>
+  </si>
+  <si>
+    <t>0305-00146394</t>
+  </si>
+  <si>
+    <t>0305-00146396</t>
+  </si>
+  <si>
+    <t>0305-00146395</t>
+  </si>
+  <si>
+    <t>0305-00146397</t>
+  </si>
+  <si>
+    <t>0305-00146399</t>
+  </si>
+  <si>
+    <t>0305-00146398</t>
+  </si>
+  <si>
+    <t>0305-00146400</t>
+  </si>
+  <si>
+    <t>0301-00016235</t>
+  </si>
+  <si>
+    <t>14/07/2023</t>
   </si>
 </sst>
 </file>
@@ -326,7 +536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,14 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="singleAccounting"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -400,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -415,7 +617,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -755,10 +956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +1013,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>10</v>
@@ -829,34 +1031,34 @@
         <v>7</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2">
-        <v>2188773.6</v>
+        <v>1098588</v>
       </c>
       <c r="F2" s="2">
-        <v>459642.46</v>
+        <v>230703.48</v>
       </c>
       <c r="G2" s="2">
-        <v>356332.34</v>
+        <v>178850.13</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>CONCATENATE("CA-",B2,"/CIA INDUSTRIAL CERVECERA")</f>
-        <v>CA-0306-00142374/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145229/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>VLOOKUP(D2,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -864,17 +1066,17 @@
       </c>
       <c r="J2" s="4" t="str">
         <f>VLOOKUP(D2,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>VLOOKUP(D2,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L2" s="3">
         <v>10</v>
       </c>
       <c r="M2" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N2" s="3">
         <v>114010</v>
@@ -891,7 +1093,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -899,23 +1101,23 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2">
-        <v>247077.48</v>
+        <v>1098588</v>
       </c>
       <c r="F3" s="2">
-        <v>51886.27</v>
+        <v>230703.48</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>178850.13</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H66" si="0">CONCATENATE("CA-",B3,"/CIA INDUSTRIAL CERVECERA")</f>
-        <v>CA-0306-00142375/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145230/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>VLOOKUP(D3,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -923,17 +1125,17 @@
       </c>
       <c r="J3" s="4" t="str">
         <f>VLOOKUP(D3,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K3" s="4" t="str">
         <f>VLOOKUP(D3,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L3" s="3">
         <v>10</v>
       </c>
       <c r="M3" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N3" s="3">
         <v>114010</v>
@@ -950,7 +1152,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -958,23 +1160,23 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2">
-        <v>2862470.4</v>
+        <v>1190137</v>
       </c>
       <c r="F4" s="2">
-        <v>601118.78</v>
+        <v>249928.77</v>
       </c>
       <c r="G4" s="2">
-        <v>466010.18</v>
+        <v>193754.3</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142377/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145232/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>VLOOKUP(D4,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -982,17 +1184,17 @@
       </c>
       <c r="J4" s="4" t="str">
         <f>VLOOKUP(D4,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K4" s="4" t="str">
         <f>VLOOKUP(D4,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L4" s="3">
         <v>10</v>
       </c>
       <c r="M4" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N4" s="3">
         <v>114010</v>
@@ -1009,7 +1211,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1017,23 +1219,23 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2">
-        <v>2879597.85</v>
+        <v>1190137</v>
       </c>
       <c r="F5" s="2">
-        <v>604715.55000000005</v>
+        <v>249928.77</v>
       </c>
       <c r="G5" s="2">
-        <v>468798.53</v>
+        <v>193754.3</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142376/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145231/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>VLOOKUP(D5,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1041,17 +1243,17 @@
       </c>
       <c r="J5" s="4" t="str">
         <f>VLOOKUP(D5,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K5" s="4" t="str">
         <f>VLOOKUP(D5,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L5" s="3">
         <v>10</v>
       </c>
       <c r="M5" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N5" s="3">
         <v>114010</v>
@@ -1068,7 +1270,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1076,23 +1278,23 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
-        <v>2146852.7999999998</v>
+        <v>776335.52</v>
       </c>
       <c r="F6" s="2">
-        <v>450839.09</v>
+        <v>163030.46</v>
       </c>
       <c r="G6" s="2">
-        <v>349507.64</v>
+        <v>126387.42</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142378/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145233/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>VLOOKUP(D6,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1100,17 +1302,17 @@
       </c>
       <c r="J6" s="4" t="str">
         <f>VLOOKUP(D6,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K6" s="4" t="str">
         <f>VLOOKUP(D6,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L6" s="3">
         <v>10</v>
       </c>
       <c r="M6" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N6" s="3">
         <v>114010</v>
@@ -1127,7 +1329,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1135,23 +1337,23 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <v>500181.24</v>
+        <v>238027.4</v>
       </c>
       <c r="F7" s="2">
-        <v>105038.06</v>
+        <v>49985.75</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>38750.86</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142379/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145234/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>VLOOKUP(D7,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1159,17 +1361,17 @@
       </c>
       <c r="J7" s="4" t="str">
         <f>VLOOKUP(D7,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K7" s="4" t="str">
         <f>VLOOKUP(D7,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L7" s="3">
         <v>10</v>
       </c>
       <c r="M7" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N7" s="3">
         <v>114010</v>
@@ -1186,7 +1388,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1194,23 +1396,23 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2">
-        <v>247077.48</v>
+        <v>238027.4</v>
       </c>
       <c r="F8" s="2">
-        <v>51886.27</v>
+        <v>49985.75</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>38750.86</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142380/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145235/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I8" s="4" t="str">
         <f>VLOOKUP(D8,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1218,17 +1420,17 @@
       </c>
       <c r="J8" s="4" t="str">
         <f>VLOOKUP(D8,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K8" s="4" t="str">
         <f>VLOOKUP(D8,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L8" s="3">
         <v>10</v>
       </c>
       <c r="M8" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N8" s="3">
         <v>114010</v>
@@ -1245,7 +1447,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1253,23 +1455,23 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2">
-        <v>274947.59999999998</v>
+        <v>153802.32</v>
       </c>
       <c r="F9" s="2">
-        <v>57739</v>
+        <v>32298.49</v>
       </c>
       <c r="G9" s="2">
-        <v>44761.47</v>
+        <v>25039.02</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142381/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145236/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I9" s="4" t="str">
         <f>VLOOKUP(D9,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1277,17 +1479,17 @@
       </c>
       <c r="J9" s="4" t="str">
         <f>VLOOKUP(D9,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>VLOOKUP(D9,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L9" s="3">
         <v>10</v>
       </c>
       <c r="M9" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N9" s="3">
         <v>114010</v>
@@ -1304,7 +1506,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1312,23 +1514,23 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2">
-        <v>2109187.2000000002</v>
+        <v>153802.32</v>
       </c>
       <c r="F10" s="2">
-        <v>442929.31</v>
+        <v>32298.49</v>
       </c>
       <c r="G10" s="2">
-        <v>343375.68</v>
+        <v>25039.02</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142383/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145237/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I10" s="4" t="str">
         <f>VLOOKUP(D10,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1336,17 +1538,17 @@
       </c>
       <c r="J10" s="4" t="str">
         <f>VLOOKUP(D10,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K10" s="4" t="str">
         <f>VLOOKUP(D10,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L10" s="3">
         <v>10</v>
       </c>
       <c r="M10" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N10" s="3">
         <v>114010</v>
@@ -1363,7 +1565,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1371,23 +1573,23 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="2">
-        <v>71100.160000000003</v>
+        <v>1272215.75</v>
       </c>
       <c r="F11" s="2">
-        <v>14931.03</v>
+        <v>267165.31</v>
       </c>
       <c r="G11" s="2">
-        <v>11575.11</v>
+        <v>207116.72</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142382/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145238/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I11" s="4" t="str">
         <f>VLOOKUP(D11,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1395,17 +1597,17 @@
       </c>
       <c r="J11" s="4" t="str">
         <f>VLOOKUP(D11,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K11" s="4" t="str">
         <f>VLOOKUP(D11,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L11" s="3">
         <v>10</v>
       </c>
       <c r="M11" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N11" s="3">
         <v>114010</v>
@@ -1422,7 +1624,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1430,23 +1632,23 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="2">
-        <v>882140.8</v>
+        <v>1272215.75</v>
       </c>
       <c r="F12" s="2">
-        <v>185249.57</v>
+        <v>267165.31</v>
       </c>
       <c r="G12" s="2">
-        <v>143612.51999999999</v>
+        <v>207116.72</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142384/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145240/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I12" s="4" t="str">
         <f>VLOOKUP(D12,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1454,17 +1656,17 @@
       </c>
       <c r="J12" s="4" t="str">
         <f>VLOOKUP(D12,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K12" s="4" t="str">
         <f>VLOOKUP(D12,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L12" s="3">
         <v>10</v>
       </c>
       <c r="M12" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N12" s="3">
         <v>114010</v>
@@ -1481,7 +1683,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1489,23 +1691,23 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="2">
-        <v>2181687.04</v>
+        <v>1272215.75</v>
       </c>
       <c r="F13" s="2">
-        <v>458154.28</v>
+        <v>267165.31</v>
       </c>
       <c r="G13" s="2">
-        <v>355178.65</v>
+        <v>207116.72</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142385/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145239/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I13" s="4" t="str">
         <f>VLOOKUP(D13,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1513,17 +1715,17 @@
       </c>
       <c r="J13" s="4" t="str">
         <f>VLOOKUP(D13,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K13" s="4" t="str">
         <f>VLOOKUP(D13,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L13" s="3">
         <v>10</v>
       </c>
       <c r="M13" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N13" s="3">
         <v>114010</v>
@@ -1540,7 +1742,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1548,23 +1750,23 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="2">
-        <v>1234997.1200000001</v>
+        <v>1272215.75</v>
       </c>
       <c r="F14" s="2">
-        <v>259349.4</v>
+        <v>267165.31</v>
       </c>
       <c r="G14" s="2">
-        <v>201057.53</v>
+        <v>207116.72</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142386/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145241/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I14" s="4" t="str">
         <f>VLOOKUP(D14,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1572,17 +1774,17 @@
       </c>
       <c r="J14" s="4" t="str">
         <f>VLOOKUP(D14,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K14" s="4" t="str">
         <f>VLOOKUP(D14,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L14" s="3">
         <v>10</v>
       </c>
       <c r="M14" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N14" s="3">
         <v>114010</v>
@@ -1599,7 +1801,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1607,23 +1809,23 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="2">
-        <v>458246</v>
+        <v>732013.37</v>
       </c>
       <c r="F15" s="2">
-        <v>96231.66</v>
-      </c>
-      <c r="G15" s="8">
-        <v>74602.45</v>
+        <v>153722.81</v>
+      </c>
+      <c r="G15" s="2">
+        <v>119171.78</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142387/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145242/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I15" s="4" t="str">
         <f>VLOOKUP(D15,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1631,17 +1833,17 @@
       </c>
       <c r="J15" s="4" t="str">
         <f>VLOOKUP(D15,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K15" s="4" t="str">
         <f>VLOOKUP(D15,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L15" s="3">
         <v>10</v>
       </c>
       <c r="M15" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N15" s="3">
         <v>114010</v>
@@ -1658,7 +1860,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1666,23 +1868,23 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2">
-        <v>2181687.04</v>
+        <v>97862.75</v>
       </c>
       <c r="F16" s="2">
-        <v>458154.28</v>
+        <v>20551.18</v>
       </c>
       <c r="G16" s="2">
-        <v>355178.65</v>
+        <v>15932.06</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142389/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145243/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I16" s="4" t="str">
         <f>VLOOKUP(D16,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1690,17 +1892,17 @@
       </c>
       <c r="J16" s="4" t="str">
         <f>VLOOKUP(D16,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K16" s="4" t="str">
         <f>VLOOKUP(D16,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L16" s="3">
         <v>10</v>
       </c>
       <c r="M16" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N16" s="3">
         <v>114010</v>
@@ -1717,7 +1919,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1725,23 +1927,23 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="2">
-        <v>2109187.2000000002</v>
+        <v>1272215.75</v>
       </c>
       <c r="F17" s="2">
-        <v>442929.31</v>
+        <v>267165.31</v>
       </c>
       <c r="G17" s="2">
-        <v>343375.68</v>
+        <v>207116.72</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142388/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145244/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I17" s="4" t="str">
         <f>VLOOKUP(D17,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1749,17 +1951,17 @@
       </c>
       <c r="J17" s="4" t="str">
         <f>VLOOKUP(D17,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K17" s="4" t="str">
         <f>VLOOKUP(D17,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L17" s="3">
         <v>10</v>
       </c>
       <c r="M17" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N17" s="3">
         <v>114010</v>
@@ -1776,7 +1978,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1784,23 +1986,23 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2">
-        <v>2469994.2400000002</v>
+        <v>254443.15</v>
       </c>
       <c r="F18" s="2">
-        <v>518698.79</v>
+        <v>53433.06</v>
       </c>
       <c r="G18" s="2">
-        <v>402115.06</v>
+        <v>41423.339999999997</v>
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142390/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145245/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I18" s="4" t="str">
         <f>VLOOKUP(D18,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1808,17 +2010,17 @@
       </c>
       <c r="J18" s="4" t="str">
         <f>VLOOKUP(D18,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K18" s="4" t="str">
         <f>VLOOKUP(D18,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L18" s="3">
         <v>10</v>
       </c>
       <c r="M18" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N18" s="3">
         <v>114010</v>
@@ -1835,7 +2037,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1843,23 +2045,23 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="2">
-        <v>1832984</v>
+        <v>254443.15</v>
       </c>
       <c r="F19" s="2">
-        <v>384926.64</v>
+        <v>53433.06</v>
       </c>
       <c r="G19" s="2">
-        <v>298409.8</v>
+        <v>41423.339999999997</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142391/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145246/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I19" s="4" t="str">
         <f>VLOOKUP(D19,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1867,17 +2069,17 @@
       </c>
       <c r="J19" s="4" t="str">
         <f>VLOOKUP(D19,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K19" s="4" t="str">
         <f>VLOOKUP(D19,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L19" s="3">
         <v>10</v>
       </c>
       <c r="M19" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N19" s="3">
         <v>114010</v>
@@ -1894,7 +2096,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1902,23 +2104,23 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2">
-        <v>1778457.48</v>
+        <v>19572.55</v>
       </c>
       <c r="F20" s="2">
-        <v>373476.07</v>
+        <v>4110.24</v>
       </c>
       <c r="G20" s="2">
-        <v>289532.88</v>
+        <v>3186.41</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142395/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145248/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I20" s="4" t="str">
         <f>VLOOKUP(D20,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1926,17 +2128,17 @@
       </c>
       <c r="J20" s="4" t="str">
         <f>VLOOKUP(D20,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K20" s="4" t="str">
         <f>VLOOKUP(D20,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L20" s="3">
         <v>10</v>
       </c>
       <c r="M20" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N20" s="3">
         <v>114010</v>
@@ -1953,7 +2155,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1961,23 +2163,23 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="2">
-        <v>512209.2</v>
+        <v>144836.87</v>
       </c>
       <c r="F21" s="2">
-        <v>107563.93</v>
+        <v>30415.74</v>
       </c>
       <c r="G21" s="2">
-        <v>83387.66</v>
+        <v>23579.439999999999</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142396/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145247/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I21" s="4" t="str">
         <f>VLOOKUP(D21,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -1985,17 +2187,17 @@
       </c>
       <c r="J21" s="4" t="str">
         <f>VLOOKUP(D21,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K21" s="4" t="str">
         <f>VLOOKUP(D21,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L21" s="3">
         <v>10</v>
       </c>
       <c r="M21" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N21" s="3">
         <v>114010</v>
@@ -2012,7 +2214,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2020,23 +2222,23 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2">
-        <v>452280.75</v>
+        <v>1777331.98</v>
       </c>
       <c r="F22" s="2">
-        <v>94978.96</v>
+        <v>373239.72</v>
       </c>
       <c r="G22" s="2">
-        <v>73631.31</v>
+        <v>289349.65000000002</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142397/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145251/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I22" s="4" t="str">
         <f>VLOOKUP(D22,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2044,17 +2246,17 @@
       </c>
       <c r="J22" s="4" t="str">
         <f>VLOOKUP(D22,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K22" s="4" t="str">
         <f>VLOOKUP(D22,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L22" s="3">
         <v>10</v>
       </c>
       <c r="M22" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N22" s="3">
         <v>114010</v>
@@ -2071,7 +2273,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2079,23 +2281,23 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="2">
-        <v>1084678.3999999999</v>
+        <v>254443.15</v>
       </c>
       <c r="F23" s="2">
-        <v>227782.46</v>
+        <v>53433.06</v>
       </c>
       <c r="G23" s="2">
-        <v>176585.64</v>
+        <v>41423.339999999997</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142398/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145249/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I23" s="4" t="str">
         <f>VLOOKUP(D23,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2103,17 +2305,17 @@
       </c>
       <c r="J23" s="4" t="str">
         <f>VLOOKUP(D23,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K23" s="4" t="str">
         <f>VLOOKUP(D23,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L23" s="3">
         <v>10</v>
       </c>
       <c r="M23" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N23" s="3">
         <v>114010</v>
@@ -2130,7 +2332,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2138,23 +2340,23 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="2">
-        <v>1627017.6</v>
+        <v>254443.15</v>
       </c>
       <c r="F24" s="2">
-        <v>341673.7</v>
+        <v>53433.06</v>
       </c>
       <c r="G24" s="2">
-        <v>264878.46999999997</v>
+        <v>41423.339999999997</v>
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142399/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145250/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I24" s="4" t="str">
         <f>VLOOKUP(D24,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2162,17 +2364,17 @@
       </c>
       <c r="J24" s="4" t="str">
         <f>VLOOKUP(D24,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K24" s="4" t="str">
         <f>VLOOKUP(D24,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L24" s="3">
         <v>10</v>
       </c>
       <c r="M24" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N24" s="3">
         <v>114010</v>
@@ -2189,7 +2391,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2197,23 +2399,23 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="2">
-        <v>1627017.6</v>
+        <v>825881.1</v>
       </c>
       <c r="F25" s="2">
-        <v>341673.7</v>
+        <v>173435.03</v>
       </c>
       <c r="G25" s="2">
-        <v>264878.46999999997</v>
+        <v>134453.44</v>
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142400/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145254/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I25" s="4" t="str">
         <f>VLOOKUP(D25,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2221,17 +2423,17 @@
       </c>
       <c r="J25" s="4" t="str">
         <f>VLOOKUP(D25,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K25" s="4" t="str">
         <f>VLOOKUP(D25,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L25" s="3">
         <v>10</v>
       </c>
       <c r="M25" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N25" s="3">
         <v>114010</v>
@@ -2248,7 +2450,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2256,23 +2458,23 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="2">
-        <v>1288055.6000000001</v>
+        <v>1857183.84</v>
       </c>
       <c r="F26" s="2">
-        <v>270491.68</v>
+        <v>390008.61</v>
       </c>
       <c r="G26" s="2">
-        <v>209695.45</v>
+        <v>302349.53000000003</v>
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142402/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145252/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I26" s="4" t="str">
         <f>VLOOKUP(D26,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2280,17 +2482,17 @@
       </c>
       <c r="J26" s="4" t="str">
         <f>VLOOKUP(D26,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K26" s="4" t="str">
         <f>VLOOKUP(D26,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L26" s="3">
         <v>10</v>
       </c>
       <c r="M26" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N26" s="3">
         <v>114010</v>
@@ -2307,7 +2509,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2315,23 +2517,23 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="2">
-        <v>1627017.6</v>
+        <v>361119.08</v>
       </c>
       <c r="F27" s="2">
-        <v>341673.7</v>
+        <v>75835.009999999995</v>
       </c>
       <c r="G27" s="2">
-        <v>264878.46999999997</v>
+        <v>58790.19</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142401/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145253/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I27" s="4" t="str">
         <f>VLOOKUP(D27,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2339,17 +2541,17 @@
       </c>
       <c r="J27" s="4" t="str">
         <f>VLOOKUP(D27,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K27" s="4" t="str">
         <f>VLOOKUP(D27,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L27" s="3">
         <v>10</v>
       </c>
       <c r="M27" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N27" s="3">
         <v>114010</v>
@@ -2366,7 +2568,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2374,23 +2576,23 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="2">
-        <v>1627017.6</v>
+        <v>495528.66</v>
       </c>
       <c r="F28" s="2">
-        <v>341673.7</v>
+        <v>104061.02</v>
       </c>
       <c r="G28" s="2">
-        <v>264878.46999999997</v>
+        <v>80672.070000000007</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142403/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00145255/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I28" s="4" t="str">
         <f>VLOOKUP(D28,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2398,17 +2600,17 @@
       </c>
       <c r="J28" s="4" t="str">
         <f>VLOOKUP(D28,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K28" s="4" t="str">
         <f>VLOOKUP(D28,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L28" s="3">
         <v>10</v>
       </c>
       <c r="M28" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N28" s="3">
         <v>114010</v>
@@ -2425,7 +2627,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2433,23 +2635,23 @@
         <v>54</v>
       </c>
       <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
       <c r="E29" s="2">
-        <v>203377.2</v>
+        <v>693942.21</v>
       </c>
       <c r="F29" s="2">
-        <v>42709.21</v>
+        <v>145727.85999999999</v>
       </c>
       <c r="G29" s="2">
-        <v>33109.81</v>
+        <v>112973.79</v>
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142405/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146402/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I29" s="4" t="str">
         <f>VLOOKUP(D29,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2467,7 +2669,7 @@
         <v>10</v>
       </c>
       <c r="M29" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N29" s="3">
         <v>114010</v>
@@ -2484,31 +2686,31 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
       <c r="E30" s="2">
-        <v>1627017.6</v>
+        <v>693942.21</v>
       </c>
       <c r="F30" s="2">
-        <v>341673.7</v>
+        <v>145727.85999999999</v>
       </c>
       <c r="G30" s="2">
-        <v>264878.46999999997</v>
+        <v>112973.79</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142404/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146401/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I30" s="4" t="str">
         <f>VLOOKUP(D30,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2526,7 +2728,7 @@
         <v>10</v>
       </c>
       <c r="M30" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N30" s="3">
         <v>114010</v>
@@ -2543,31 +2745,31 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
         <v>16</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
       <c r="E31" s="2">
-        <v>1627017.6</v>
+        <v>693942.21</v>
       </c>
       <c r="F31" s="2">
-        <v>341673.7</v>
+        <v>145727.85999999999</v>
       </c>
       <c r="G31" s="2">
-        <v>264878.46999999997</v>
+        <v>112973.79</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142406/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146403/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I31" s="4" t="str">
         <f>VLOOKUP(D31,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2585,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N31" s="3">
         <v>114010</v>
@@ -2602,31 +2804,31 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
       <c r="E32" s="2">
-        <v>1627017.6</v>
+        <v>1304531.8799999999</v>
       </c>
       <c r="F32" s="2">
-        <v>341673.7</v>
+        <v>273951.69</v>
       </c>
       <c r="G32" s="2">
-        <v>264878.46999999997</v>
+        <v>212377.79</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142407/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146404/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I32" s="4" t="str">
         <f>VLOOKUP(D32,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2644,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="M32" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N32" s="3">
         <v>114010</v>
@@ -2666,26 +2868,26 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
         <v>16</v>
       </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
       <c r="E33" s="2">
-        <v>1627017.6</v>
+        <v>1559484.48</v>
       </c>
       <c r="F33" s="2">
-        <v>341673.7</v>
+        <v>327491.74</v>
       </c>
       <c r="G33" s="2">
-        <v>264878.46999999997</v>
+        <v>253884.07</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142408/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146405/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I33" s="4" t="str">
         <f>VLOOKUP(D33,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2703,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="M33" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N33" s="3">
         <v>114010</v>
@@ -2725,26 +2927,26 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
       <c r="E34" s="2">
-        <v>1627017.6</v>
+        <v>1304531.8799999999</v>
       </c>
       <c r="F34" s="2">
-        <v>341673.7</v>
+        <v>273951.69</v>
       </c>
       <c r="G34" s="2">
-        <v>264878.46999999997</v>
+        <v>212377.79</v>
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142410/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146406/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I34" s="4" t="str">
         <f>VLOOKUP(D34,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2762,7 +2964,7 @@
         <v>10</v>
       </c>
       <c r="M34" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N34" s="3">
         <v>114010</v>
@@ -2784,26 +2986,26 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
       <c r="E35" s="2">
-        <v>381597.84</v>
+        <v>1661054.4</v>
       </c>
       <c r="F35" s="2">
-        <v>80135.55</v>
+        <v>348821.42</v>
       </c>
       <c r="G35" s="2">
-        <v>62124.13</v>
+        <v>270419.65999999997</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142392/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146410/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I35" s="4" t="str">
         <f>VLOOKUP(D35,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2821,7 +3023,7 @@
         <v>10</v>
       </c>
       <c r="M35" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N35" s="3">
         <v>114010</v>
@@ -2843,26 +3045,26 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
       <c r="E36" s="2">
-        <v>1764281.6</v>
+        <v>2717242.08</v>
       </c>
       <c r="F36" s="2">
-        <v>370499.14</v>
+        <v>570620.84</v>
       </c>
       <c r="G36" s="2">
-        <v>287225.03999999998</v>
+        <v>442367.01</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142393/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146412/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I36" s="4" t="str">
         <f>VLOOKUP(D36,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2880,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="M36" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N36" s="3">
         <v>114010</v>
@@ -2902,26 +3104,26 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
       <c r="E37" s="2">
-        <v>603041</v>
+        <v>1485856.32</v>
       </c>
       <c r="F37" s="2">
-        <v>126638.61</v>
+        <v>312029.83</v>
       </c>
       <c r="G37" s="2">
-        <v>98175.07</v>
+        <v>241897.41</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142394/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146411/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I37" s="4" t="str">
         <f>VLOOKUP(D37,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2939,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="M37" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N37" s="3">
         <v>114010</v>
@@ -2961,26 +3163,26 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
       <c r="E38" s="2">
-        <v>1355848</v>
+        <v>2717242.08</v>
       </c>
       <c r="F38" s="2">
-        <v>284728.08</v>
+        <v>570620.84</v>
       </c>
       <c r="G38" s="2">
-        <v>220732.05</v>
+        <v>442367.01</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142409/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146413/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I38" s="4" t="str">
         <f>VLOOKUP(D38,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -2998,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="M38" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N38" s="3">
         <v>114010</v>
@@ -3015,31 +3217,31 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="2">
-        <v>1627017.6</v>
+        <v>827610.16</v>
       </c>
       <c r="F39" s="2">
-        <v>341673.7</v>
+        <v>173798.13</v>
       </c>
       <c r="G39" s="2">
-        <v>264878.46999999997</v>
+        <v>134734.93</v>
       </c>
       <c r="H39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142411/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146601/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I39" s="4" t="str">
         <f>VLOOKUP(D39,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3047,17 +3249,17 @@
       </c>
       <c r="J39" s="4" t="str">
         <f>VLOOKUP(D39,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0000</v>
+        <v>0001</v>
       </c>
       <c r="K39" s="4" t="str">
         <f>VLOOKUP(D39,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>MAAD</v>
+        <v>LPAD</v>
       </c>
       <c r="L39" s="3">
         <v>10</v>
       </c>
       <c r="M39" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N39" s="3">
         <v>114010</v>
@@ -3079,26 +3281,26 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
       <c r="E40" s="2">
-        <v>1627017.6</v>
+        <v>679310.52</v>
       </c>
       <c r="F40" s="2">
-        <v>341673.7</v>
+        <v>142655.21</v>
       </c>
       <c r="G40" s="2">
-        <v>264878.46999999997</v>
+        <v>110591.75</v>
       </c>
       <c r="H40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142413/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146414/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I40" s="4" t="str">
         <f>VLOOKUP(D40,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3116,7 +3318,7 @@
         <v>10</v>
       </c>
       <c r="M40" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N40" s="3">
         <v>114010</v>
@@ -3133,31 +3335,31 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="2">
-        <v>870230</v>
+        <v>827610.16</v>
       </c>
       <c r="F41" s="2">
-        <v>182748.3</v>
+        <v>173798.13</v>
       </c>
       <c r="G41" s="2">
-        <v>141673.44</v>
+        <v>134734.93</v>
       </c>
       <c r="H41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142440/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146602/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I41" s="4" t="str">
         <f>VLOOKUP(D41,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3175,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="M41" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N41" s="3">
         <v>114010</v>
@@ -3197,26 +3399,26 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
       <c r="E42" s="2">
-        <v>174827.25</v>
+        <v>1559484.48</v>
       </c>
       <c r="F42" s="2">
-        <v>36713.72</v>
+        <v>327491.74</v>
       </c>
       <c r="G42" s="2">
-        <v>28461.88</v>
+        <v>253884.07</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142438/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146407/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I42" s="4" t="str">
         <f>VLOOKUP(D42,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3224,17 +3426,17 @@
       </c>
       <c r="J42" s="4" t="str">
         <f>VLOOKUP(D42,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K42" s="4" t="str">
         <f>VLOOKUP(D42,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L42" s="3">
         <v>10</v>
       </c>
       <c r="M42" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N42" s="3">
         <v>114010</v>
@@ -3256,26 +3458,26 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
       <c r="E43" s="2">
-        <v>185110.9</v>
+        <v>1485856.32</v>
       </c>
       <c r="F43" s="2">
-        <v>38873.29</v>
+        <v>312029.83</v>
       </c>
       <c r="G43" s="2">
-        <v>30136.05</v>
+        <v>241897.41</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142439/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146409/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I43" s="4" t="str">
         <f>VLOOKUP(D43,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3283,17 +3485,17 @@
       </c>
       <c r="J43" s="4" t="str">
         <f>VLOOKUP(D43,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K43" s="4" t="str">
         <f>VLOOKUP(D43,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L43" s="3">
         <v>10</v>
       </c>
       <c r="M43" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N43" s="3">
         <v>114010</v>
@@ -3315,26 +3517,26 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
       <c r="E44" s="2">
-        <v>370221.8</v>
+        <v>1661054.4</v>
       </c>
       <c r="F44" s="2">
-        <v>77746.58</v>
+        <v>348821.42</v>
       </c>
       <c r="G44" s="2">
-        <v>60272.11</v>
+        <v>270419.65999999997</v>
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142437/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146408/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I44" s="4" t="str">
         <f>VLOOKUP(D44,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3342,17 +3544,17 @@
       </c>
       <c r="J44" s="4" t="str">
         <f>VLOOKUP(D44,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K44" s="4" t="str">
         <f>VLOOKUP(D44,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L44" s="3">
         <v>10</v>
       </c>
       <c r="M44" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N44" s="3">
         <v>114010</v>
@@ -3374,26 +3576,26 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
       <c r="E45" s="2">
-        <v>295861.5</v>
+        <v>514677.28</v>
       </c>
       <c r="F45" s="2">
-        <v>62130.92</v>
+        <v>108082.23</v>
       </c>
       <c r="G45" s="2">
-        <v>48166.25</v>
+        <v>83789.460000000006</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142435/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146417/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I45" s="4" t="str">
         <f>VLOOKUP(D45,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3401,17 +3603,17 @@
       </c>
       <c r="J45" s="4" t="str">
         <f>VLOOKUP(D45,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K45" s="4" t="str">
         <f>VLOOKUP(D45,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L45" s="3">
         <v>10</v>
       </c>
       <c r="M45" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N45" s="3">
         <v>114010</v>
@@ -3433,26 +3635,26 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
       <c r="E46" s="2">
-        <v>341743.2</v>
+        <v>514677.28</v>
       </c>
       <c r="F46" s="2">
-        <v>71766.070000000007</v>
+        <v>108082.23</v>
       </c>
       <c r="G46" s="2">
-        <v>55635.79</v>
+        <v>83789.460000000006</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142436/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146419/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I46" s="4" t="str">
         <f>VLOOKUP(D46,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3460,17 +3662,17 @@
       </c>
       <c r="J46" s="4" t="str">
         <f>VLOOKUP(D46,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K46" s="4" t="str">
         <f>VLOOKUP(D46,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L46" s="3">
         <v>10</v>
       </c>
       <c r="M46" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N46" s="3">
         <v>114010</v>
@@ -3492,26 +3694,26 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
       <c r="E47" s="2">
-        <v>555332.69999999995</v>
+        <v>514677.28</v>
       </c>
       <c r="F47" s="2">
-        <v>116619.87</v>
+        <v>108082.23</v>
       </c>
       <c r="G47" s="2">
-        <v>90408.16</v>
+        <v>83789.460000000006</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142433/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146418/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I47" s="4" t="str">
         <f>VLOOKUP(D47,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3519,17 +3721,17 @@
       </c>
       <c r="J47" s="4" t="str">
         <f>VLOOKUP(D47,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K47" s="4" t="str">
         <f>VLOOKUP(D47,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L47" s="3">
         <v>10</v>
       </c>
       <c r="M47" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N47" s="3">
         <v>114010</v>
@@ -3551,26 +3753,26 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
       <c r="E48" s="2">
-        <v>512614.8</v>
+        <v>621636.30000000005</v>
       </c>
       <c r="F48" s="2">
-        <v>107649.11</v>
+        <v>130543.62</v>
       </c>
       <c r="G48" s="2">
-        <v>83453.69</v>
+        <v>101202.39</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142432/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146420/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I48" s="4" t="str">
         <f>VLOOKUP(D48,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3578,17 +3780,17 @@
       </c>
       <c r="J48" s="4" t="str">
         <f>VLOOKUP(D48,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K48" s="4" t="str">
         <f>VLOOKUP(D48,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L48" s="3">
         <v>10</v>
       </c>
       <c r="M48" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N48" s="3">
         <v>114010</v>
@@ -3610,26 +3812,26 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
       <c r="E49" s="2">
-        <v>199350.2</v>
+        <v>621636.30000000005</v>
       </c>
       <c r="F49" s="2">
-        <v>41863.54</v>
+        <v>130543.62</v>
       </c>
       <c r="G49" s="2">
-        <v>32454.21</v>
+        <v>101202.39</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142434/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146421/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I49" s="4" t="str">
         <f>VLOOKUP(D49,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3637,17 +3839,17 @@
       </c>
       <c r="J49" s="4" t="str">
         <f>VLOOKUP(D49,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K49" s="4" t="str">
         <f>VLOOKUP(D49,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L49" s="3">
         <v>10</v>
       </c>
       <c r="M49" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N49" s="3">
         <v>114010</v>
@@ -3669,26 +3871,26 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
       <c r="E50" s="2">
-        <v>443792.25</v>
+        <v>307546.38</v>
       </c>
       <c r="F50" s="2">
-        <v>93196.37</v>
+        <v>64584.74</v>
       </c>
       <c r="G50" s="2">
-        <v>72249.38</v>
+        <v>50068.55</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142431/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146422/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I50" s="4" t="str">
         <f>VLOOKUP(D50,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3696,17 +3898,17 @@
       </c>
       <c r="J50" s="4" t="str">
         <f>VLOOKUP(D50,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K50" s="4" t="str">
         <f>VLOOKUP(D50,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L50" s="3">
         <v>10</v>
       </c>
       <c r="M50" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N50" s="3">
         <v>114010</v>
@@ -3728,26 +3930,26 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
         <v>16</v>
       </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
       <c r="E51" s="2">
-        <v>524481.75</v>
+        <v>58891.86</v>
       </c>
       <c r="F51" s="2">
-        <v>110141.17</v>
+        <v>12367.29</v>
       </c>
       <c r="G51" s="2">
-        <v>85385.63</v>
+        <v>9587.59</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142430/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146423/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I51" s="4" t="str">
         <f>VLOOKUP(D51,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3755,17 +3957,17 @@
       </c>
       <c r="J51" s="4" t="str">
         <f>VLOOKUP(D51,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K51" s="4" t="str">
         <f>VLOOKUP(D51,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L51" s="3">
         <v>10</v>
       </c>
       <c r="M51" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N51" s="3">
         <v>114010</v>
@@ -3787,26 +3989,26 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
         <v>16</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
       <c r="E52" s="2">
-        <v>299025.3</v>
+        <v>307546.38</v>
       </c>
       <c r="F52" s="2">
-        <v>62795.31</v>
+        <v>64584.74</v>
       </c>
       <c r="G52" s="2">
-        <v>48681.32</v>
+        <v>50068.55</v>
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142429/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146424/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I52" s="4" t="str">
         <f>VLOOKUP(D52,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3814,17 +4016,17 @@
       </c>
       <c r="J52" s="4" t="str">
         <f>VLOOKUP(D52,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K52" s="4" t="str">
         <f>VLOOKUP(D52,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L52" s="3">
         <v>10</v>
       </c>
       <c r="M52" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N52" s="3">
         <v>114010</v>
@@ -3846,26 +4048,26 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
         <v>16</v>
       </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
       <c r="E53" s="2">
-        <v>740443.6</v>
+        <v>1556078.76</v>
       </c>
       <c r="F53" s="2">
-        <v>155493.16</v>
+        <v>326776.53999999998</v>
       </c>
       <c r="G53" s="2">
-        <v>120544.22</v>
+        <v>253329.62</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142428/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146415/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I53" s="4" t="str">
         <f>VLOOKUP(D53,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3873,17 +4075,17 @@
       </c>
       <c r="J53" s="4" t="str">
         <f>VLOOKUP(D53,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K53" s="4" t="str">
         <f>VLOOKUP(D53,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L53" s="3">
         <v>10</v>
       </c>
       <c r="M53" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N53" s="3">
         <v>114010</v>
@@ -3908,23 +4110,23 @@
         <v>79</v>
       </c>
       <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
         <v>16</v>
       </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
       <c r="E54" s="2">
-        <v>683486.4</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>143532.14000000001</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
-        <v>111271.59</v>
+        <v>0</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142427/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146415/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I54" s="4" t="str">
         <f>VLOOKUP(D54,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3932,17 +4134,17 @@
       </c>
       <c r="J54" s="4" t="str">
         <f>VLOOKUP(D54,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K54" s="4" t="str">
         <f>VLOOKUP(D54,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L54" s="3">
         <v>10</v>
       </c>
       <c r="M54" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N54" s="3">
         <v>114010</v>
@@ -3967,23 +4169,23 @@
         <v>80</v>
       </c>
       <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
       <c r="E55" s="2">
-        <v>591723</v>
+        <v>1556078.76</v>
       </c>
       <c r="F55" s="2">
-        <v>124261.83</v>
+        <v>326776.53999999998</v>
       </c>
       <c r="G55" s="2">
-        <v>96332.5</v>
+        <v>253329.62</v>
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142426/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146416/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I55" s="4" t="str">
         <f>VLOOKUP(D55,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -3991,17 +4193,17 @@
       </c>
       <c r="J55" s="4" t="str">
         <f>VLOOKUP(D55,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K55" s="4" t="str">
         <f>VLOOKUP(D55,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L55" s="3">
         <v>10</v>
       </c>
       <c r="M55" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N55" s="3">
         <v>114010</v>
@@ -4023,26 +4225,26 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
         <v>16</v>
       </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
       <c r="E56" s="2">
-        <v>699309</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>146854.89000000001</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2">
-        <v>113847.51</v>
+        <v>0</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142425/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146416/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I56" s="4" t="str">
         <f>VLOOKUP(D56,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4050,17 +4252,17 @@
       </c>
       <c r="J56" s="4" t="str">
         <f>VLOOKUP(D56,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K56" s="4" t="str">
         <f>VLOOKUP(D56,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L56" s="3">
         <v>10</v>
       </c>
       <c r="M56" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N56" s="3">
         <v>114010</v>
@@ -4082,26 +4284,26 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
       <c r="E57" s="2">
-        <v>398700.4</v>
+        <v>1162690.32</v>
       </c>
       <c r="F57" s="2">
-        <v>83727.08</v>
+        <v>244164.97</v>
       </c>
       <c r="G57" s="2">
-        <v>64908.43</v>
+        <v>189285.98</v>
       </c>
       <c r="H57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142424/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146321/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I57" s="4" t="str">
         <f>VLOOKUP(D57,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4109,17 +4311,17 @@
       </c>
       <c r="J57" s="4" t="str">
         <f>VLOOKUP(D57,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K57" s="4" t="str">
         <f>VLOOKUP(D57,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L57" s="3">
         <v>10</v>
       </c>
       <c r="M57" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N57" s="3">
         <v>114010</v>
@@ -4141,26 +4343,26 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
         <v>16</v>
       </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
       <c r="E58" s="2">
-        <v>482291.55</v>
+        <v>1162690.32</v>
       </c>
       <c r="F58" s="2">
-        <v>101281.23</v>
+        <v>244164.97</v>
       </c>
       <c r="G58" s="2">
-        <v>78517.06</v>
+        <v>189285.98</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142423/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146322/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I58" s="4" t="str">
         <f>VLOOKUP(D58,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4168,17 +4370,17 @@
       </c>
       <c r="J58" s="4" t="str">
         <f>VLOOKUP(D58,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K58" s="4" t="str">
         <f>VLOOKUP(D58,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L58" s="3">
         <v>10</v>
       </c>
       <c r="M58" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N58" s="3">
         <v>114010</v>
@@ -4200,26 +4402,26 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
         <v>16</v>
       </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
       <c r="E59" s="2">
-        <v>1446874.65</v>
+        <v>1162690.32</v>
       </c>
       <c r="F59" s="2">
-        <v>303843.68</v>
+        <v>244164.97</v>
       </c>
       <c r="G59" s="2">
-        <v>235551.19</v>
+        <v>189285.98</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142422/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146323/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I59" s="4" t="str">
         <f>VLOOKUP(D59,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4227,17 +4429,17 @@
       </c>
       <c r="J59" s="4" t="str">
         <f>VLOOKUP(D59,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K59" s="4" t="str">
         <f>VLOOKUP(D59,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L59" s="3">
         <v>10</v>
       </c>
       <c r="M59" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N59" s="3">
         <v>114010</v>
@@ -4259,26 +4461,26 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
       <c r="E60" s="2">
-        <v>1446874.65</v>
+        <v>1162690.32</v>
       </c>
       <c r="F60" s="2">
-        <v>303843.68</v>
+        <v>244164.97</v>
       </c>
       <c r="G60" s="2">
-        <v>235551.19</v>
+        <v>189285.98</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142421/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146324/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I60" s="4" t="str">
         <f>VLOOKUP(D60,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4286,17 +4488,17 @@
       </c>
       <c r="J60" s="4" t="str">
         <f>VLOOKUP(D60,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K60" s="4" t="str">
         <f>VLOOKUP(D60,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L60" s="3">
         <v>10</v>
       </c>
       <c r="M60" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N60" s="3">
         <v>114010</v>
@@ -4318,26 +4520,26 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" t="s">
         <v>16</v>
       </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
       <c r="E61" s="2">
-        <v>2893749.3</v>
+        <v>2261610.7400000002</v>
       </c>
       <c r="F61" s="2">
-        <v>607687.35</v>
+        <v>474938.26</v>
       </c>
       <c r="G61" s="2">
-        <v>471102.39</v>
+        <v>368190.23</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142420/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146326/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I61" s="4" t="str">
         <f>VLOOKUP(D61,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4345,17 +4547,17 @@
       </c>
       <c r="J61" s="4" t="str">
         <f>VLOOKUP(D61,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K61" s="4" t="str">
         <f>VLOOKUP(D61,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L61" s="3">
         <v>10</v>
       </c>
       <c r="M61" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N61" s="3">
         <v>114010</v>
@@ -4377,26 +4579,26 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
       <c r="E62" s="2">
-        <v>2893749.3</v>
+        <v>484454.3</v>
       </c>
       <c r="F62" s="2">
-        <v>607687.35</v>
+        <v>101735.4</v>
       </c>
       <c r="G62" s="2">
-        <v>471102.39</v>
+        <v>78869.16</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142419/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146327/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I62" s="4" t="str">
         <f>VLOOKUP(D62,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4404,17 +4606,17 @@
       </c>
       <c r="J62" s="4" t="str">
         <f>VLOOKUP(D62,domicilios!$B$1:$D$3,3,FALSE)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="K62" s="4" t="str">
         <f>VLOOKUP(D62,domicilios!$B$1:$E$3,4,FALSE)</f>
-        <v>LPAD</v>
+        <v>MAAD</v>
       </c>
       <c r="L62" s="3">
         <v>10</v>
       </c>
       <c r="M62" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N62" s="3">
         <v>114010</v>
@@ -4436,26 +4638,26 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
       <c r="E63" s="2">
-        <v>745716.4</v>
+        <v>1162690.32</v>
       </c>
       <c r="F63" s="2">
-        <v>156600.44</v>
+        <v>244164.97</v>
       </c>
       <c r="G63" s="2">
-        <v>121402.63</v>
+        <v>189285.98</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142418/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146325/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I63" s="4" t="str">
         <f>VLOOKUP(D63,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4473,7 +4675,7 @@
         <v>10</v>
       </c>
       <c r="M63" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N63" s="3">
         <v>114010</v>
@@ -4495,26 +4697,26 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="D64" t="s">
-        <v>17</v>
-      </c>
       <c r="E64" s="2">
-        <v>1627017.6</v>
+        <v>1162690.32</v>
       </c>
       <c r="F64" s="2">
-        <v>341673.7</v>
+        <v>244164.97</v>
       </c>
       <c r="G64" s="2">
-        <v>264878.46999999997</v>
+        <v>189285.98</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142416/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146328/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I64" s="4" t="str">
         <f>VLOOKUP(D64,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4532,7 +4734,7 @@
         <v>10</v>
       </c>
       <c r="M64" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N64" s="3">
         <v>114010</v>
@@ -4554,26 +4756,26 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
         <v>16</v>
       </c>
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
       <c r="E65" s="2">
-        <v>1627017.6</v>
+        <v>1162690.32</v>
       </c>
       <c r="F65" s="2">
-        <v>341673.7</v>
+        <v>244164.97</v>
       </c>
       <c r="G65" s="2">
-        <v>264878.46999999997</v>
+        <v>189285.98</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142415/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146329/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I65" s="4" t="str">
         <f>VLOOKUP(D65,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4591,7 +4793,7 @@
         <v>10</v>
       </c>
       <c r="M65" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N65" s="3">
         <v>114010</v>
@@ -4613,26 +4815,26 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
       <c r="E66" s="2">
-        <v>1627017.6</v>
+        <v>1162690.32</v>
       </c>
       <c r="F66" s="2">
-        <v>341673.7</v>
+        <v>244164.97</v>
       </c>
       <c r="G66" s="2">
-        <v>264878.46999999997</v>
+        <v>189285.98</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0306-00142417/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146330/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I66" s="4" t="str">
         <f>VLOOKUP(D66,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4650,7 +4852,7 @@
         <v>10</v>
       </c>
       <c r="M66" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N66" s="3">
         <v>114010</v>
@@ -4672,26 +4874,26 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" t="s">
         <v>16</v>
       </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
       <c r="E67" s="2">
-        <v>1220263.2</v>
+        <v>1162690.32</v>
       </c>
       <c r="F67" s="2">
-        <v>256255.27</v>
+        <v>244164.97</v>
       </c>
       <c r="G67" s="2">
-        <v>198658.85</v>
+        <v>189285.98</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" ref="H67:H68" si="2">CONCATENATE("CA-",B67,"/CIA INDUSTRIAL CERVECERA")</f>
-        <v>CA-0306-00142412/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146332/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I67" s="4" t="str">
         <f>VLOOKUP(D67,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4709,7 +4911,7 @@
         <v>10</v>
       </c>
       <c r="M67" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N67" s="3">
         <v>114010</v>
@@ -4731,26 +4933,26 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
         <v>16</v>
       </c>
-      <c r="D68" t="s">
-        <v>17</v>
-      </c>
       <c r="E68" s="2">
-        <v>1627017.6</v>
+        <v>1162690.32</v>
       </c>
       <c r="F68" s="2">
-        <v>341673.7</v>
+        <v>244164.97</v>
       </c>
       <c r="G68" s="2">
-        <v>264878.46999999997</v>
+        <v>189285.98</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>CA-0306-00142414/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0305-00146331/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I68" s="4" t="str">
         <f>VLOOKUP(D68,domicilios!$B$1:$D$3,2,FALSE)</f>
@@ -4768,7 +4970,7 @@
         <v>10</v>
       </c>
       <c r="M68" s="3">
-        <v>410081</v>
+        <v>212040</v>
       </c>
       <c r="N68" s="3">
         <v>114010</v>
@@ -4787,635 +4989,4135 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="2">
+        <v>202901.62</v>
+      </c>
+      <c r="F69" s="2">
+        <v>42609.34</v>
+      </c>
+      <c r="G69" s="2">
+        <v>33032.379999999997</v>
+      </c>
+      <c r="H69" s="4" t="str">
+        <f t="shared" ref="H69:H132" si="4">CONCATENATE("CA-",B69,"/CIA INDUSTRIAL CERVECERA")</f>
+        <v>CA-0305-00146335/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I69" s="4" t="str">
+        <f>VLOOKUP(D69,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J69" s="4" t="str">
+        <f>VLOOKUP(D69,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K69" s="4" t="str">
+        <f>VLOOKUP(D69,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L69" s="3">
+        <v>10</v>
+      </c>
+      <c r="M69" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N69" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O69" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P69" s="4">
+        <f>ROW()</f>
+        <v>69</v>
+      </c>
+      <c r="Q69" s="4" t="str">
+        <f t="shared" ref="Q69:Q132" si="5">TEXT(L69,"00000")</f>
+        <v>00010</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2">
+        <v>484454.3</v>
+      </c>
+      <c r="F70" s="2">
+        <v>101735.4</v>
+      </c>
+      <c r="G70" s="2">
+        <v>78869.16</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146333/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I70" s="4" t="str">
+        <f>VLOOKUP(D70,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J70" s="4" t="str">
+        <f>VLOOKUP(D70,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K70" s="4" t="str">
+        <f>VLOOKUP(D70,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L70" s="3">
+        <v>10</v>
+      </c>
+      <c r="M70" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N70" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O70" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P70" s="4">
+        <f>ROW()</f>
+        <v>70</v>
+      </c>
+      <c r="Q70" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1162690.32</v>
+      </c>
+      <c r="F71" s="2">
+        <v>244164.97</v>
+      </c>
+      <c r="G71" s="2">
+        <v>189285.98</v>
+      </c>
+      <c r="H71" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146334/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I71" s="4" t="str">
+        <f>VLOOKUP(D71,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J71" s="4" t="str">
+        <f>VLOOKUP(D71,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K71" s="4" t="str">
+        <f>VLOOKUP(D71,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L71" s="3">
+        <v>10</v>
+      </c>
+      <c r="M71" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N71" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O71" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P71" s="4">
+        <f>ROW()</f>
+        <v>71</v>
+      </c>
+      <c r="Q71" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2">
+        <v>202901.62</v>
+      </c>
+      <c r="F72" s="2">
+        <v>42609.34</v>
+      </c>
+      <c r="G72" s="2">
+        <v>33032.379999999997</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146337/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I72" s="4" t="str">
+        <f>VLOOKUP(D72,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J72" s="4" t="str">
+        <f>VLOOKUP(D72,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K72" s="4" t="str">
+        <f>VLOOKUP(D72,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L72" s="3">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N72" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O72" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P72" s="4">
+        <f>ROW()</f>
+        <v>72</v>
+      </c>
+      <c r="Q72" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F73" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G73" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H73" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146336/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I73" s="4" t="str">
+        <f>VLOOKUP(D73,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J73" s="4" t="str">
+        <f>VLOOKUP(D73,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K73" s="4" t="str">
+        <f>VLOOKUP(D73,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L73" s="3">
+        <v>10</v>
+      </c>
+      <c r="M73" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N73" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O73" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P73" s="4">
+        <f>ROW()</f>
+        <v>73</v>
+      </c>
+      <c r="Q73" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="2">
+        <v>633448.95999999996</v>
+      </c>
+      <c r="F74" s="2">
+        <v>133024.28</v>
+      </c>
+      <c r="G74" s="2">
+        <v>103125.49</v>
+      </c>
+      <c r="H74" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146345/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I74" s="4" t="str">
+        <f>VLOOKUP(D74,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J74" s="4" t="str">
+        <f>VLOOKUP(D74,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K74" s="4" t="str">
+        <f>VLOOKUP(D74,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L74" s="3">
+        <v>10</v>
+      </c>
+      <c r="M74" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N74" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O74" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P74" s="4">
+        <f>ROW()</f>
+        <v>74</v>
+      </c>
+      <c r="Q74" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2058709.12</v>
+      </c>
+      <c r="F75" s="2">
+        <v>432328.92</v>
+      </c>
+      <c r="G75" s="2">
+        <v>335157.84000000003</v>
+      </c>
+      <c r="H75" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146346/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I75" s="4" t="str">
+        <f>VLOOKUP(D75,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J75" s="4" t="str">
+        <f>VLOOKUP(D75,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K75" s="4" t="str">
+        <f>VLOOKUP(D75,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L75" s="3">
+        <v>10</v>
+      </c>
+      <c r="M75" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N75" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O75" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P75" s="4">
+        <f>ROW()</f>
+        <v>75</v>
+      </c>
+      <c r="Q75" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2058709.12</v>
+      </c>
+      <c r="F76" s="2">
+        <v>432328.92</v>
+      </c>
+      <c r="G76" s="2">
+        <v>335157.84000000003</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146344/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I76" s="4" t="str">
+        <f>VLOOKUP(D76,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J76" s="4" t="str">
+        <f>VLOOKUP(D76,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K76" s="4" t="str">
+        <f>VLOOKUP(D76,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L76" s="3">
+        <v>10</v>
+      </c>
+      <c r="M76" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N76" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O76" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P76" s="4">
+        <f>ROW()</f>
+        <v>76</v>
+      </c>
+      <c r="Q76" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2">
+        <v>855657.6</v>
+      </c>
+      <c r="F77" s="2">
+        <v>179688.1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>139301.06</v>
+      </c>
+      <c r="H77" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146348/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I77" s="4" t="str">
+        <f>VLOOKUP(D77,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J77" s="4" t="str">
+        <f>VLOOKUP(D77,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K77" s="4" t="str">
+        <f>VLOOKUP(D77,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L77" s="3">
+        <v>10</v>
+      </c>
+      <c r="M77" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N77" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O77" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P77" s="4">
+        <f>ROW()</f>
+        <v>77</v>
+      </c>
+      <c r="Q77" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1317788.1599999999</v>
+      </c>
+      <c r="F78" s="2">
+        <v>276735.51</v>
+      </c>
+      <c r="G78" s="2">
+        <v>214535.91</v>
+      </c>
+      <c r="H78" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146349/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I78" s="4" t="str">
+        <f>VLOOKUP(D78,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J78" s="4" t="str">
+        <f>VLOOKUP(D78,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K78" s="4" t="str">
+        <f>VLOOKUP(D78,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L78" s="3">
+        <v>10</v>
+      </c>
+      <c r="M78" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N78" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O78" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P78" s="4">
+        <f>ROW()</f>
+        <v>78</v>
+      </c>
+      <c r="Q78" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2">
+        <v>633448.95999999996</v>
+      </c>
+      <c r="F79" s="2">
+        <v>133024.28</v>
+      </c>
+      <c r="G79" s="2">
+        <v>103125.49</v>
+      </c>
+      <c r="H79" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146347/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I79" s="4" t="str">
+        <f>VLOOKUP(D79,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J79" s="4" t="str">
+        <f>VLOOKUP(D79,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K79" s="4" t="str">
+        <f>VLOOKUP(D79,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L79" s="3">
+        <v>10</v>
+      </c>
+      <c r="M79" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N79" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O79" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P79" s="4">
+        <f>ROW()</f>
+        <v>79</v>
+      </c>
+      <c r="Q79" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1317788.1599999999</v>
+      </c>
+      <c r="F80" s="2">
+        <v>276735.51</v>
+      </c>
+      <c r="G80" s="2">
+        <v>214535.91</v>
+      </c>
+      <c r="H80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146351/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I80" s="4" t="str">
+        <f>VLOOKUP(D80,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J80" s="4" t="str">
+        <f>VLOOKUP(D80,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K80" s="4" t="str">
+        <f>VLOOKUP(D80,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L80" s="3">
+        <v>10</v>
+      </c>
+      <c r="M80" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N80" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O80" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P80" s="4">
+        <f>ROW()</f>
+        <v>80</v>
+      </c>
+      <c r="Q80" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2">
+        <v>855657.6</v>
+      </c>
+      <c r="F81" s="2">
+        <v>179688.1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>139301.06</v>
+      </c>
+      <c r="H81" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146350/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I81" s="4" t="str">
+        <f>VLOOKUP(D81,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J81" s="4" t="str">
+        <f>VLOOKUP(D81,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K81" s="4" t="str">
+        <f>VLOOKUP(D81,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L81" s="3">
+        <v>10</v>
+      </c>
+      <c r="M81" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N81" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O81" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P81" s="4">
+        <f>ROW()</f>
+        <v>81</v>
+      </c>
+      <c r="Q81" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F82" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G82" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H82" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146354/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I82" s="4" t="str">
+        <f>VLOOKUP(D82,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J82" s="4" t="str">
+        <f>VLOOKUP(D82,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K82" s="4" t="str">
+        <f>VLOOKUP(D82,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L82" s="3">
+        <v>10</v>
+      </c>
+      <c r="M82" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N82" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O82" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P82" s="4">
+        <f>ROW()</f>
+        <v>82</v>
+      </c>
+      <c r="Q82" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F83" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G83" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H83" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146355/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I83" s="4" t="str">
+        <f>VLOOKUP(D83,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J83" s="4" t="str">
+        <f>VLOOKUP(D83,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K83" s="4" t="str">
+        <f>VLOOKUP(D83,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L83" s="3">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N83" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O83" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P83" s="4">
+        <f>ROW()</f>
+        <v>83</v>
+      </c>
+      <c r="Q83" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F84" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G84" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H84" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146356/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I84" s="4" t="str">
+        <f>VLOOKUP(D84,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J84" s="4" t="str">
+        <f>VLOOKUP(D84,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K84" s="4" t="str">
+        <f>VLOOKUP(D84,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L84" s="3">
+        <v>10</v>
+      </c>
+      <c r="M84" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N84" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O84" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P84" s="4">
+        <f>ROW()</f>
+        <v>84</v>
+      </c>
+      <c r="Q84" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="2">
+        <v>206994.11</v>
+      </c>
+      <c r="F85" s="2">
+        <v>43468.76</v>
+      </c>
+      <c r="G85" s="2">
+        <v>33698.639999999999</v>
+      </c>
+      <c r="H85" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146357/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I85" s="4" t="str">
+        <f>VLOOKUP(D85,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J85" s="4" t="str">
+        <f>VLOOKUP(D85,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K85" s="4" t="str">
+        <f>VLOOKUP(D85,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L85" s="3">
+        <v>10</v>
+      </c>
+      <c r="M85" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N85" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O85" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P85" s="4">
+        <f>ROW()</f>
+        <v>85</v>
+      </c>
+      <c r="Q85" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F86" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G86" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146358/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I86" s="4" t="str">
+        <f>VLOOKUP(D86,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J86" s="4" t="str">
+        <f>VLOOKUP(D86,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K86" s="4" t="str">
+        <f>VLOOKUP(D86,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L86" s="3">
+        <v>10</v>
+      </c>
+      <c r="M86" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N86" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O86" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P86" s="4">
+        <f>ROW()</f>
+        <v>86</v>
+      </c>
+      <c r="Q86" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F87" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G87" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H87" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146359/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I87" s="4" t="str">
+        <f>VLOOKUP(D87,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J87" s="4" t="str">
+        <f>VLOOKUP(D87,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K87" s="4" t="str">
+        <f>VLOOKUP(D87,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L87" s="3">
+        <v>10</v>
+      </c>
+      <c r="M87" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N87" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O87" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P87" s="4">
+        <f>ROW()</f>
+        <v>87</v>
+      </c>
+      <c r="Q87" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F88" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G88" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H88" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146361/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I88" s="4" t="str">
+        <f>VLOOKUP(D88,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J88" s="4" t="str">
+        <f>VLOOKUP(D88,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K88" s="4" t="str">
+        <f>VLOOKUP(D88,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L88" s="3">
+        <v>10</v>
+      </c>
+      <c r="M88" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N88" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O88" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P88" s="4">
+        <f>ROW()</f>
+        <v>88</v>
+      </c>
+      <c r="Q88" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2">
+        <v>30828.91</v>
+      </c>
+      <c r="F89" s="2">
+        <v>6474.07</v>
+      </c>
+      <c r="G89" s="2">
+        <v>5018.95</v>
+      </c>
+      <c r="H89" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146360/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I89" s="4" t="str">
+        <f>VLOOKUP(D89,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J89" s="4" t="str">
+        <f>VLOOKUP(D89,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K89" s="4" t="str">
+        <f>VLOOKUP(D89,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L89" s="3">
+        <v>10</v>
+      </c>
+      <c r="M89" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N89" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O89" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P89" s="4">
+        <f>ROW()</f>
+        <v>89</v>
+      </c>
+      <c r="Q89" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="B90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F90" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G90" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146362/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I90" s="4" t="str">
+        <f>VLOOKUP(D90,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J90" s="4" t="str">
+        <f>VLOOKUP(D90,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K90" s="4" t="str">
+        <f>VLOOKUP(D90,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L90" s="3">
+        <v>10</v>
+      </c>
+      <c r="M90" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N90" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O90" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P90" s="4">
+        <f>ROW()</f>
+        <v>90</v>
+      </c>
+      <c r="Q90" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2156537.6</v>
+      </c>
+      <c r="F91" s="2">
+        <v>452872.9</v>
+      </c>
+      <c r="G91" s="2">
+        <v>351084.32</v>
+      </c>
+      <c r="H91" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146339/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I91" s="4" t="str">
+        <f>VLOOKUP(D91,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J91" s="4" t="str">
+        <f>VLOOKUP(D91,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K91" s="4" t="str">
+        <f>VLOOKUP(D91,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L91" s="3">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N91" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O91" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P91" s="4">
+        <f>ROW()</f>
+        <v>91</v>
+      </c>
+      <c r="Q91" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1497827.4</v>
+      </c>
+      <c r="F92" s="2">
+        <v>314543.75</v>
+      </c>
+      <c r="G92" s="2">
+        <v>243846.3</v>
+      </c>
+      <c r="H92" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146338/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I92" s="4" t="str">
+        <f>VLOOKUP(D92,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J92" s="4" t="str">
+        <f>VLOOKUP(D92,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K92" s="4" t="str">
+        <f>VLOOKUP(D92,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L92" s="3">
+        <v>10</v>
+      </c>
+      <c r="M92" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N92" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O92" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P92" s="4">
+        <f>ROW()</f>
+        <v>92</v>
+      </c>
+      <c r="Q92" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1028669.76</v>
+      </c>
+      <c r="F93" s="2">
+        <v>216020.65</v>
+      </c>
+      <c r="G93" s="2">
+        <v>167467.44</v>
+      </c>
+      <c r="H93" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146340/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I93" s="4" t="str">
+        <f>VLOOKUP(D93,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J93" s="4" t="str">
+        <f>VLOOKUP(D93,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K93" s="4" t="str">
+        <f>VLOOKUP(D93,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L93" s="3">
+        <v>10</v>
+      </c>
+      <c r="M93" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N93" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O93" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P93" s="4">
+        <f>ROW()</f>
+        <v>93</v>
+      </c>
+      <c r="Q93" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="B94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2156537.6</v>
+      </c>
+      <c r="F94" s="2">
+        <v>452872.9</v>
+      </c>
+      <c r="G94" s="2">
+        <v>351084.32</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146342/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I94" s="4" t="str">
+        <f>VLOOKUP(D94,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J94" s="4" t="str">
+        <f>VLOOKUP(D94,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K94" s="4" t="str">
+        <f>VLOOKUP(D94,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L94" s="3">
+        <v>10</v>
+      </c>
+      <c r="M94" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N94" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O94" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P94" s="4">
+        <f>ROW()</f>
+        <v>94</v>
+      </c>
+      <c r="Q94" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1028669.76</v>
+      </c>
+      <c r="F95" s="2">
+        <v>216020.65</v>
+      </c>
+      <c r="G95" s="2">
+        <v>167467.44</v>
+      </c>
+      <c r="H95" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146343/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I95" s="4" t="str">
+        <f>VLOOKUP(D95,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J95" s="4" t="str">
+        <f>VLOOKUP(D95,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K95" s="4" t="str">
+        <f>VLOOKUP(D95,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L95" s="3">
+        <v>10</v>
+      </c>
+      <c r="M95" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N95" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O95" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P95" s="4">
+        <f>ROW()</f>
+        <v>95</v>
+      </c>
+      <c r="Q95" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1497827.4</v>
+      </c>
+      <c r="F96" s="2">
+        <v>314543.75</v>
+      </c>
+      <c r="G96" s="2">
+        <v>243846.3</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146341/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <f>VLOOKUP(D96,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J96" s="4" t="str">
+        <f>VLOOKUP(D96,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K96" s="4" t="str">
+        <f>VLOOKUP(D96,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L96" s="3">
+        <v>10</v>
+      </c>
+      <c r="M96" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N96" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O96" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P96" s="4">
+        <f>ROW()</f>
+        <v>96</v>
+      </c>
+      <c r="Q96" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1900990.44</v>
+      </c>
+      <c r="F97" s="2">
+        <v>399207.99</v>
+      </c>
+      <c r="G97" s="2">
+        <v>309481.24</v>
+      </c>
+      <c r="H97" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146353/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I97" s="4" t="str">
+        <f>VLOOKUP(D97,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J97" s="4" t="str">
+        <f>VLOOKUP(D97,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K97" s="4" t="str">
+        <f>VLOOKUP(D97,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L97" s="3">
+        <v>10</v>
+      </c>
+      <c r="M97" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N97" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O97" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P97" s="4">
+        <f>ROW()</f>
+        <v>97</v>
+      </c>
+      <c r="Q97" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="B98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="2">
+        <v>2122035.84</v>
+      </c>
+      <c r="F98" s="2">
+        <v>445627.53</v>
+      </c>
+      <c r="G98" s="2">
+        <v>345467.43</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146352/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <f>VLOOKUP(D98,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J98" s="4" t="str">
+        <f>VLOOKUP(D98,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K98" s="4" t="str">
+        <f>VLOOKUP(D98,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L98" s="3">
+        <v>10</v>
+      </c>
+      <c r="M98" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N98" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O98" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P98" s="4">
+        <f>ROW()</f>
+        <v>98</v>
+      </c>
+      <c r="Q98" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="B99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="2">
+        <v>220206.5</v>
+      </c>
+      <c r="F99" s="2">
+        <v>46243.37</v>
+      </c>
+      <c r="G99" s="2">
+        <v>35849.620000000003</v>
+      </c>
+      <c r="H99" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146364/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I99" s="4" t="str">
+        <f>VLOOKUP(D99,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J99" s="4" t="str">
+        <f>VLOOKUP(D99,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K99" s="4" t="str">
+        <f>VLOOKUP(D99,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L99" s="3">
+        <v>10</v>
+      </c>
+      <c r="M99" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N99" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O99" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P99" s="4">
+        <f>ROW()</f>
+        <v>99</v>
+      </c>
+      <c r="Q99" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F100" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G100" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146363/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <f>VLOOKUP(D100,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J100" s="4" t="str">
+        <f>VLOOKUP(D100,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K100" s="4" t="str">
+        <f>VLOOKUP(D100,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L100" s="3">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N100" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O100" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P100" s="4">
+        <f>ROW()</f>
+        <v>100</v>
+      </c>
+      <c r="Q100" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F101" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G101" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H101" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146365/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I101" s="4" t="str">
+        <f>VLOOKUP(D101,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J101" s="4" t="str">
+        <f>VLOOKUP(D101,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K101" s="4" t="str">
+        <f>VLOOKUP(D101,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L101" s="3">
+        <v>10</v>
+      </c>
+      <c r="M101" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N101" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O101" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P101" s="4">
+        <f>ROW()</f>
+        <v>101</v>
+      </c>
+      <c r="Q101" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="B102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="2">
+        <v>198185.85</v>
+      </c>
+      <c r="F102" s="2">
+        <v>41619.03</v>
+      </c>
+      <c r="G102" s="2">
+        <v>32264.66</v>
+      </c>
+      <c r="H102" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146367/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I102" s="4" t="str">
+        <f>VLOOKUP(D102,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J102" s="4" t="str">
+        <f>VLOOKUP(D102,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K102" s="4" t="str">
+        <f>VLOOKUP(D102,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L102" s="3">
+        <v>10</v>
+      </c>
+      <c r="M102" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N102" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O102" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P102" s="4">
+        <f>ROW()</f>
+        <v>102</v>
+      </c>
+      <c r="Q102" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="B103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F103" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G103" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H103" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146366/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I103" s="4" t="str">
+        <f>VLOOKUP(D103,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J103" s="4" t="str">
+        <f>VLOOKUP(D103,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K103" s="4" t="str">
+        <f>VLOOKUP(D103,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L103" s="3">
+        <v>10</v>
+      </c>
+      <c r="M103" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N103" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O103" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P103" s="4">
+        <f>ROW()</f>
+        <v>103</v>
+      </c>
+      <c r="Q103" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F104" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G104" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H104" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146368/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I104" s="4" t="str">
+        <f>VLOOKUP(D104,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J104" s="4" t="str">
+        <f>VLOOKUP(D104,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K104" s="4" t="str">
+        <f>VLOOKUP(D104,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L104" s="3">
+        <v>10</v>
+      </c>
+      <c r="M104" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N104" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O104" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P104" s="4">
+        <f>ROW()</f>
+        <v>104</v>
+      </c>
+      <c r="Q104" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F105" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G105" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H105" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146369/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I105" s="4" t="str">
+        <f>VLOOKUP(D105,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J105" s="4" t="str">
+        <f>VLOOKUP(D105,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K105" s="4" t="str">
+        <f>VLOOKUP(D105,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L105" s="3">
+        <v>10</v>
+      </c>
+      <c r="M105" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N105" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O105" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P105" s="4">
+        <f>ROW()</f>
+        <v>105</v>
+      </c>
+      <c r="Q105" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" t="s">
+        <v>55</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F106" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G106" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H106" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146370/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I106" s="4" t="str">
+        <f>VLOOKUP(D106,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J106" s="4" t="str">
+        <f>VLOOKUP(D106,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K106" s="4" t="str">
+        <f>VLOOKUP(D106,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L106" s="3">
+        <v>10</v>
+      </c>
+      <c r="M106" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N106" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O106" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P106" s="4">
+        <f>ROW()</f>
+        <v>106</v>
+      </c>
+      <c r="Q106" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="B107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F107" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G107" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H107" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146371/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I107" s="4" t="str">
+        <f>VLOOKUP(D107,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J107" s="4" t="str">
+        <f>VLOOKUP(D107,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K107" s="4" t="str">
+        <f>VLOOKUP(D107,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L107" s="3">
+        <v>10</v>
+      </c>
+      <c r="M107" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N107" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O107" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P107" s="4">
+        <f>ROW()</f>
+        <v>107</v>
+      </c>
+      <c r="Q107" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="B108" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="2">
+        <v>264247.8</v>
+      </c>
+      <c r="F108" s="2">
+        <v>55492.04</v>
+      </c>
+      <c r="G108" s="2">
+        <v>43019.54</v>
+      </c>
+      <c r="H108" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146372/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I108" s="4" t="str">
+        <f>VLOOKUP(D108,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J108" s="4" t="str">
+        <f>VLOOKUP(D108,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K108" s="4" t="str">
+        <f>VLOOKUP(D108,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L108" s="3">
+        <v>10</v>
+      </c>
+      <c r="M108" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N108" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O108" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P108" s="4">
+        <f>ROW()</f>
+        <v>108</v>
+      </c>
+      <c r="Q108" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="B109" t="s">
+        <v>133</v>
+      </c>
+      <c r="C109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" s="2">
+        <v>118911.51</v>
+      </c>
+      <c r="F109" s="2">
+        <v>24971.42</v>
+      </c>
+      <c r="G109" s="2">
+        <v>19358.79</v>
+      </c>
+      <c r="H109" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146373/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I109" s="4" t="str">
+        <f>VLOOKUP(D109,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J109" s="4" t="str">
+        <f>VLOOKUP(D109,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K109" s="4" t="str">
+        <f>VLOOKUP(D109,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L109" s="3">
+        <v>10</v>
+      </c>
+      <c r="M109" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N109" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O109" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P109" s="4">
+        <f>ROW()</f>
+        <v>109</v>
+      </c>
+      <c r="Q109" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="B110" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F110" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G110" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146374/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I110" s="4" t="str">
+        <f>VLOOKUP(D110,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J110" s="4" t="str">
+        <f>VLOOKUP(D110,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K110" s="4" t="str">
+        <f>VLOOKUP(D110,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L110" s="3">
+        <v>10</v>
+      </c>
+      <c r="M110" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N110" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O110" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P110" s="4">
+        <f>ROW()</f>
+        <v>110</v>
+      </c>
+      <c r="Q110" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="B111" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F111" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G111" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H111" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146375/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I111" s="4" t="str">
+        <f>VLOOKUP(D111,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J111" s="4" t="str">
+        <f>VLOOKUP(D111,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K111" s="4" t="str">
+        <f>VLOOKUP(D111,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L111" s="3">
+        <v>10</v>
+      </c>
+      <c r="M111" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N111" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O111" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P111" s="4">
+        <f>ROW()</f>
+        <v>111</v>
+      </c>
+      <c r="Q111" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F112" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G112" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146376/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I112" s="4" t="str">
+        <f>VLOOKUP(D112,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J112" s="4" t="str">
+        <f>VLOOKUP(D112,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K112" s="4" t="str">
+        <f>VLOOKUP(D112,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L112" s="3">
+        <v>10</v>
+      </c>
+      <c r="M112" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N112" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O112" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P112" s="4">
+        <f>ROW()</f>
+        <v>112</v>
+      </c>
+      <c r="Q112" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" s="2">
+        <v>83678.47</v>
+      </c>
+      <c r="F113" s="2">
+        <v>17572.48</v>
+      </c>
+      <c r="G113" s="2">
+        <v>13622.85</v>
+      </c>
+      <c r="H113" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146377/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I113" s="4" t="str">
+        <f>VLOOKUP(D113,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J113" s="4" t="str">
+        <f>VLOOKUP(D113,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K113" s="4" t="str">
+        <f>VLOOKUP(D113,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L113" s="3">
+        <v>10</v>
+      </c>
+      <c r="M113" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N113" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O113" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P113" s="4">
+        <f>ROW()</f>
+        <v>113</v>
+      </c>
+      <c r="Q113" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" t="s">
+        <v>55</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F114" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G114" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146378/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I114" s="4" t="str">
+        <f>VLOOKUP(D114,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J114" s="4" t="str">
+        <f>VLOOKUP(D114,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K114" s="4" t="str">
+        <f>VLOOKUP(D114,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L114" s="3">
+        <v>10</v>
+      </c>
+      <c r="M114" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N114" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O114" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P114" s="4">
+        <f>ROW()</f>
+        <v>114</v>
+      </c>
+      <c r="Q114" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F115" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G115" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H115" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146379/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I115" s="4" t="str">
+        <f>VLOOKUP(D115,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J115" s="4" t="str">
+        <f>VLOOKUP(D115,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K115" s="4" t="str">
+        <f>VLOOKUP(D115,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L115" s="3">
+        <v>10</v>
+      </c>
+      <c r="M115" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N115" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O115" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P115" s="4">
+        <f>ROW()</f>
+        <v>115</v>
+      </c>
+      <c r="Q115" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="B116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="2">
+        <v>13212.39</v>
+      </c>
+      <c r="F116" s="2">
+        <v>2774.6</v>
+      </c>
+      <c r="G116" s="2">
+        <v>2150.98</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146380/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I116" s="4" t="str">
+        <f>VLOOKUP(D116,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J116" s="4" t="str">
+        <f>VLOOKUP(D116,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K116" s="4" t="str">
+        <f>VLOOKUP(D116,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L116" s="3">
+        <v>10</v>
+      </c>
+      <c r="M116" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N116" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O116" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P116" s="4">
+        <f>ROW()</f>
+        <v>116</v>
+      </c>
+      <c r="Q116" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="B117" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F117" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G117" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H117" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146381/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I117" s="4" t="str">
+        <f>VLOOKUP(D117,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J117" s="4" t="str">
+        <f>VLOOKUP(D117,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K117" s="4" t="str">
+        <f>VLOOKUP(D117,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L117" s="3">
+        <v>10</v>
+      </c>
+      <c r="M117" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N117" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O117" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P117" s="4">
+        <f>ROW()</f>
+        <v>117</v>
+      </c>
+      <c r="Q117" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="B118" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" t="s">
+        <v>55</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F118" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G118" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H118" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146382/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I118" s="4" t="str">
+        <f>VLOOKUP(D118,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J118" s="4" t="str">
+        <f>VLOOKUP(D118,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K118" s="4" t="str">
+        <f>VLOOKUP(D118,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L118" s="3">
+        <v>10</v>
+      </c>
+      <c r="M118" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N118" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O118" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P118" s="4">
+        <f>ROW()</f>
+        <v>118</v>
+      </c>
+      <c r="Q118" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="B119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F119" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G119" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H119" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146383/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I119" s="4" t="str">
+        <f>VLOOKUP(D119,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J119" s="4" t="str">
+        <f>VLOOKUP(D119,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K119" s="4" t="str">
+        <f>VLOOKUP(D119,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L119" s="3">
+        <v>10</v>
+      </c>
+      <c r="M119" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N119" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O119" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P119" s="4">
+        <f>ROW()</f>
+        <v>119</v>
+      </c>
+      <c r="Q119" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="2">
+        <v>88082.6</v>
+      </c>
+      <c r="F120" s="2">
+        <v>18497.349999999999</v>
+      </c>
+      <c r="G120" s="2">
+        <v>14339.85</v>
+      </c>
+      <c r="H120" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146384/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I120" s="4" t="str">
+        <f>VLOOKUP(D120,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J120" s="4" t="str">
+        <f>VLOOKUP(D120,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K120" s="4" t="str">
+        <f>VLOOKUP(D120,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L120" s="3">
+        <v>10</v>
+      </c>
+      <c r="M120" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N120" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O120" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P120" s="4">
+        <f>ROW()</f>
+        <v>120</v>
+      </c>
+      <c r="Q120" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F121" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G121" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H121" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146385/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I121" s="4" t="str">
+        <f>VLOOKUP(D121,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J121" s="4" t="str">
+        <f>VLOOKUP(D121,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K121" s="4" t="str">
+        <f>VLOOKUP(D121,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L121" s="3">
+        <v>10</v>
+      </c>
+      <c r="M121" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N121" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O121" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P121" s="4">
+        <f>ROW()</f>
+        <v>121</v>
+      </c>
+      <c r="Q121" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="B122" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F122" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G122" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H122" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146386/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I122" s="4" t="str">
+        <f>VLOOKUP(D122,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J122" s="4" t="str">
+        <f>VLOOKUP(D122,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K122" s="4" t="str">
+        <f>VLOOKUP(D122,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L122" s="3">
+        <v>10</v>
+      </c>
+      <c r="M122" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N122" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O122" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P122" s="4">
+        <f>ROW()</f>
+        <v>122</v>
+      </c>
+      <c r="Q122" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+      <c r="B123" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="2">
+        <v>79274.34</v>
+      </c>
+      <c r="F123" s="2">
+        <v>16647.61</v>
+      </c>
+      <c r="G123" s="2">
+        <v>12905.86</v>
+      </c>
+      <c r="H123" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146387/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I123" s="4" t="str">
+        <f>VLOOKUP(D123,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J123" s="4" t="str">
+        <f>VLOOKUP(D123,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K123" s="4" t="str">
+        <f>VLOOKUP(D123,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L123" s="3">
+        <v>10</v>
+      </c>
+      <c r="M123" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N123" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O123" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P123" s="4">
+        <f>ROW()</f>
+        <v>123</v>
+      </c>
+      <c r="Q123" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="B124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F124" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G124" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H124" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146390/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I124" s="4" t="str">
+        <f>VLOOKUP(D124,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J124" s="4" t="str">
+        <f>VLOOKUP(D124,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K124" s="4" t="str">
+        <f>VLOOKUP(D124,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L124" s="3">
+        <v>10</v>
+      </c>
+      <c r="M124" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N124" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O124" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P124" s="4">
+        <f>ROW()</f>
+        <v>124</v>
+      </c>
+      <c r="Q124" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="B125" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F125" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G125" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H125" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146388/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I125" s="4" t="str">
+        <f>VLOOKUP(D125,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J125" s="4" t="str">
+        <f>VLOOKUP(D125,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K125" s="4" t="str">
+        <f>VLOOKUP(D125,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L125" s="3">
+        <v>10</v>
+      </c>
+      <c r="M125" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N125" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O125" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P125" s="4">
+        <f>ROW()</f>
+        <v>125</v>
+      </c>
+      <c r="Q125" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F126" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G126" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H126" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146389/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I126" s="4" t="str">
+        <f>VLOOKUP(D126,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J126" s="4" t="str">
+        <f>VLOOKUP(D126,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K126" s="4" t="str">
+        <f>VLOOKUP(D126,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L126" s="3">
+        <v>10</v>
+      </c>
+      <c r="M126" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N126" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O126" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P126" s="4">
+        <f>ROW()</f>
+        <v>126</v>
+      </c>
+      <c r="Q126" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+      <c r="B127" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" t="s">
+        <v>55</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="2">
+        <v>2482830.48</v>
+      </c>
+      <c r="F127" s="2">
+        <v>521394.4</v>
+      </c>
+      <c r="G127" s="2">
+        <v>404204.79999999999</v>
+      </c>
+      <c r="H127" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146600/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I127" s="4" t="str">
+        <f>VLOOKUP(D127,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J127" s="4" t="str">
+        <f>VLOOKUP(D127,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="K127" s="4" t="str">
+        <f>VLOOKUP(D127,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>LPAD</v>
+      </c>
+      <c r="L127" s="3">
+        <v>10</v>
+      </c>
+      <c r="M127" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N127" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O127" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P127" s="4">
+        <f>ROW()</f>
+        <v>127</v>
+      </c>
+      <c r="Q127" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F128" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G128" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H128" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146391/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I128" s="4" t="str">
+        <f>VLOOKUP(D128,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J128" s="4" t="str">
+        <f>VLOOKUP(D128,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K128" s="4" t="str">
+        <f>VLOOKUP(D128,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L128" s="3">
+        <v>10</v>
+      </c>
+      <c r="M128" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N128" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O128" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P128" s="4">
+        <f>ROW()</f>
+        <v>128</v>
+      </c>
+      <c r="Q128" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="B129" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="2">
+        <v>105699.12</v>
+      </c>
+      <c r="F129" s="2">
+        <v>22196.82</v>
+      </c>
+      <c r="G129" s="2">
+        <v>17207.82</v>
+      </c>
+      <c r="H129" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146392/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I129" s="4" t="str">
+        <f>VLOOKUP(D129,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J129" s="4" t="str">
+        <f>VLOOKUP(D129,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K129" s="4" t="str">
+        <f>VLOOKUP(D129,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L129" s="3">
+        <v>10</v>
+      </c>
+      <c r="M129" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N129" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O129" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P129" s="4">
+        <f>ROW()</f>
+        <v>129</v>
+      </c>
+      <c r="Q129" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>55</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" s="2">
+        <v>48445.43</v>
+      </c>
+      <c r="F130" s="2">
+        <v>10173.540000000001</v>
+      </c>
+      <c r="G130" s="2">
+        <v>7886.92</v>
+      </c>
+      <c r="H130" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146393/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I130" s="4" t="str">
+        <f>VLOOKUP(D130,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J130" s="4" t="str">
+        <f>VLOOKUP(D130,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K130" s="4" t="str">
+        <f>VLOOKUP(D130,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L130" s="3">
+        <v>10</v>
+      </c>
+      <c r="M130" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N130" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O130" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P130" s="4">
+        <f>ROW()</f>
+        <v>130</v>
+      </c>
+      <c r="Q130" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="B131" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" t="s">
+        <v>55</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="2">
+        <v>2081826.63</v>
+      </c>
+      <c r="F131" s="2">
+        <v>437183.59</v>
+      </c>
+      <c r="G131" s="2">
+        <v>338921.38</v>
+      </c>
+      <c r="H131" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146394/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I131" s="4" t="str">
+        <f>VLOOKUP(D131,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J131" s="4" t="str">
+        <f>VLOOKUP(D131,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K131" s="4" t="str">
+        <f>VLOOKUP(D131,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L131" s="3">
+        <v>10</v>
+      </c>
+      <c r="M131" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N131" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O131" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P131" s="4">
+        <f>ROW()</f>
+        <v>131</v>
+      </c>
+      <c r="Q131" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="B132" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" t="s">
+        <v>55</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="2">
+        <v>2081826.63</v>
+      </c>
+      <c r="F132" s="2">
+        <v>437183.59</v>
+      </c>
+      <c r="G132" s="2">
+        <v>338921.38</v>
+      </c>
+      <c r="H132" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>CA-0305-00146396/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I132" s="4" t="str">
+        <f>VLOOKUP(D132,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J132" s="4" t="str">
+        <f>VLOOKUP(D132,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K132" s="4" t="str">
+        <f>VLOOKUP(D132,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L132" s="3">
+        <v>10</v>
+      </c>
+      <c r="M132" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N132" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O132" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P132" s="4">
+        <f>ROW()</f>
+        <v>132</v>
+      </c>
+      <c r="Q132" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="B133" t="s">
+        <v>157</v>
+      </c>
+      <c r="C133" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="2">
+        <v>2081826.63</v>
+      </c>
+      <c r="F133" s="2">
+        <v>437183.59</v>
+      </c>
+      <c r="G133" s="2">
+        <v>338921.38</v>
+      </c>
+      <c r="H133" s="4" t="str">
+        <f t="shared" ref="H133:H138" si="6">CONCATENATE("CA-",B133,"/CIA INDUSTRIAL CERVECERA")</f>
+        <v>CA-0305-00146395/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I133" s="4" t="str">
+        <f>VLOOKUP(D133,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J133" s="4" t="str">
+        <f>VLOOKUP(D133,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K133" s="4" t="str">
+        <f>VLOOKUP(D133,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L133" s="3">
+        <v>10</v>
+      </c>
+      <c r="M133" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N133" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O133" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P133" s="4">
+        <f>ROW()</f>
+        <v>133</v>
+      </c>
+      <c r="Q133" s="4" t="str">
+        <f t="shared" ref="Q133:Q138" si="7">TEXT(L133,"00000")</f>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="B134" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134" t="s">
+        <v>55</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2081826.63</v>
+      </c>
+      <c r="F134" s="2">
+        <v>437183.59</v>
+      </c>
+      <c r="G134" s="2">
+        <v>338921.38</v>
+      </c>
+      <c r="H134" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CA-0305-00146397/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I134" s="4" t="str">
+        <f>VLOOKUP(D134,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J134" s="4" t="str">
+        <f>VLOOKUP(D134,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K134" s="4" t="str">
+        <f>VLOOKUP(D134,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L134" s="3">
+        <v>10</v>
+      </c>
+      <c r="M134" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N134" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O134" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P134" s="4">
+        <f>ROW()</f>
+        <v>134</v>
+      </c>
+      <c r="Q134" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+      <c r="B135" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="2">
+        <v>693942.21</v>
+      </c>
+      <c r="F135" s="2">
+        <v>145727.85999999999</v>
+      </c>
+      <c r="G135" s="2">
+        <v>112973.79</v>
+      </c>
+      <c r="H135" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CA-0305-00146399/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I135" s="4" t="str">
+        <f>VLOOKUP(D135,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J135" s="4" t="str">
+        <f>VLOOKUP(D135,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K135" s="4" t="str">
+        <f>VLOOKUP(D135,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L135" s="3">
+        <v>10</v>
+      </c>
+      <c r="M135" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N135" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O135" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P135" s="4">
+        <f>ROW()</f>
+        <v>135</v>
+      </c>
+      <c r="Q135" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="B136" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2081826.63</v>
+      </c>
+      <c r="F136" s="2">
+        <v>437183.59</v>
+      </c>
+      <c r="G136" s="2">
+        <v>338921.38</v>
+      </c>
+      <c r="H136" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CA-0305-00146398/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I136" s="4" t="str">
+        <f>VLOOKUP(D136,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J136" s="4" t="str">
+        <f>VLOOKUP(D136,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K136" s="4" t="str">
+        <f>VLOOKUP(D136,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L136" s="3">
+        <v>10</v>
+      </c>
+      <c r="M136" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N136" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O136" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P136" s="4">
+        <f>ROW()</f>
+        <v>136</v>
+      </c>
+      <c r="Q136" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+      <c r="B137" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="2">
+        <v>693942.21</v>
+      </c>
+      <c r="F137" s="2">
+        <v>145727.85999999999</v>
+      </c>
+      <c r="G137" s="2">
+        <v>112973.79</v>
+      </c>
+      <c r="H137" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CA-0305-00146400/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I137" s="4" t="str">
+        <f>VLOOKUP(D137,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J137" s="4" t="str">
+        <f>VLOOKUP(D137,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K137" s="4" t="str">
+        <f>VLOOKUP(D137,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L137" s="3">
+        <v>10</v>
+      </c>
+      <c r="M137" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N137" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O137" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P137" s="4">
+        <f>ROW()</f>
+        <v>137</v>
+      </c>
+      <c r="Q137" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>137</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1701621.22</v>
+      </c>
+      <c r="F138" s="2">
+        <v>357340.46</v>
+      </c>
+      <c r="G138" s="2">
+        <v>277023.93</v>
+      </c>
+      <c r="H138" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>CA-0301-00016235/CIA INDUSTRIAL CERVECERA</v>
+      </c>
+      <c r="I138" s="4" t="str">
+        <f>VLOOKUP(D138,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <v>0001</v>
+      </c>
+      <c r="J138" s="4" t="str">
+        <f>VLOOKUP(D138,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <v>0000</v>
+      </c>
+      <c r="K138" s="4" t="str">
+        <f>VLOOKUP(D138,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <v>MAAD</v>
+      </c>
+      <c r="L138" s="3">
+        <v>10</v>
+      </c>
+      <c r="M138" s="3">
+        <v>212040</v>
+      </c>
+      <c r="N138" s="3">
+        <v>114010</v>
+      </c>
+      <c r="O138" s="3">
+        <v>8004</v>
+      </c>
+      <c r="P138" s="4">
+        <f>ROW()</f>
+        <v>138</v>
+      </c>
+      <c r="Q138" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>00010</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5424,7 +9126,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5433,7 +9135,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5442,7 +9144,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5451,7 +9153,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5460,7 +9162,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8368,7 +12070,120 @@
       <c r="G466" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P466" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P466" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="LARREA 716, 1900 - La Plata - Buenos Aires"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters blank="1">
+        <filter val="100"/>
+        <filter val="101"/>
+        <filter val="102"/>
+        <filter val="103"/>
+        <filter val="104"/>
+        <filter val="105"/>
+        <filter val="106"/>
+        <filter val="107"/>
+        <filter val="108"/>
+        <filter val="109"/>
+        <filter val="110"/>
+        <filter val="111"/>
+        <filter val="112"/>
+        <filter val="113"/>
+        <filter val="114"/>
+        <filter val="115"/>
+        <filter val="116"/>
+        <filter val="117"/>
+        <filter val="118"/>
+        <filter val="119"/>
+        <filter val="120"/>
+        <filter val="121"/>
+        <filter val="122"/>
+        <filter val="123"/>
+        <filter val="124"/>
+        <filter val="125"/>
+        <filter val="126"/>
+        <filter val="128"/>
+        <filter val="129"/>
+        <filter val="130"/>
+        <filter val="131"/>
+        <filter val="132"/>
+        <filter val="133"/>
+        <filter val="134"/>
+        <filter val="135"/>
+        <filter val="136"/>
+        <filter val="137"/>
+        <filter val="138"/>
+        <filter val="33"/>
+        <filter val="34"/>
+        <filter val="35"/>
+        <filter val="36"/>
+        <filter val="37"/>
+        <filter val="38"/>
+        <filter val="40"/>
+        <filter val="42"/>
+        <filter val="43"/>
+        <filter val="44"/>
+        <filter val="45"/>
+        <filter val="46"/>
+        <filter val="47"/>
+        <filter val="48"/>
+        <filter val="49"/>
+        <filter val="50"/>
+        <filter val="51"/>
+        <filter val="52"/>
+        <filter val="53"/>
+        <filter val="54"/>
+        <filter val="55"/>
+        <filter val="56"/>
+        <filter val="57"/>
+        <filter val="58"/>
+        <filter val="59"/>
+        <filter val="60"/>
+        <filter val="61"/>
+        <filter val="62"/>
+        <filter val="63"/>
+        <filter val="64"/>
+        <filter val="65"/>
+        <filter val="66"/>
+        <filter val="67"/>
+        <filter val="68"/>
+        <filter val="69"/>
+        <filter val="70"/>
+        <filter val="71"/>
+        <filter val="72"/>
+        <filter val="73"/>
+        <filter val="74"/>
+        <filter val="75"/>
+        <filter val="76"/>
+        <filter val="77"/>
+        <filter val="78"/>
+        <filter val="79"/>
+        <filter val="80"/>
+        <filter val="81"/>
+        <filter val="82"/>
+        <filter val="83"/>
+        <filter val="84"/>
+        <filter val="85"/>
+        <filter val="86"/>
+        <filter val="87"/>
+        <filter val="88"/>
+        <filter val="89"/>
+        <filter val="90"/>
+        <filter val="91"/>
+        <filter val="92"/>
+        <filter val="93"/>
+        <filter val="94"/>
+        <filter val="95"/>
+        <filter val="96"/>
+        <filter val="97"/>
+        <filter val="98"/>
+        <filter val="99"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8391,7 +12206,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
@@ -8403,15 +12218,15 @@
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="str">
         <f>TEXT(1,"0000")</f>
@@ -8422,15 +12237,15 @@
         <v>0000</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="str">
         <f>TEXT(1,"0000")</f>
@@ -8441,7 +12256,7 @@
         <v>0001</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/invoice_to_excel_sigma_cerveza.xlsx
+++ b/invoice_to_excel_sigma_cerveza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srvdc\Unidad Personal\glorenzo\Documents\UiPath\carga_comprobantes_sigma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1586B3E-3A40-4653-9B65-C7A1485C7F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D730E233-3119-425B-BBB9-CC1ACF52F017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facturas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="168">
   <si>
     <t>Numero de Factura</t>
   </si>
@@ -214,15 +214,6 @@
     <t>0305-00146404</t>
   </si>
   <si>
-    <t>0305-00146405</t>
-  </si>
-  <si>
-    <t>0305-00146406</t>
-  </si>
-  <si>
-    <t>0305-00146410</t>
-  </si>
-  <si>
     <t>0305-00146412</t>
   </si>
   <si>
@@ -527,6 +518,27 @@
   </si>
   <si>
     <t>14/07/2023</t>
+  </si>
+  <si>
+    <t>codigo cliente</t>
+  </si>
+  <si>
+    <t>LOGIQUEN SA</t>
+  </si>
+  <si>
+    <t>LANIN 1, 8309 - Centenario - Neuquen</t>
+  </si>
+  <si>
+    <t>0306-00146405</t>
+  </si>
+  <si>
+    <t>0306-00146406</t>
+  </si>
+  <si>
+    <t>0306-00146410</t>
+  </si>
+  <si>
+    <t>ADMI</t>
   </si>
 </sst>
 </file>
@@ -956,11 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1061,15 +1072,15 @@
         <v>CA-0305-00145229/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f>VLOOKUP(D2,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D2,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f>VLOOKUP(D2,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D2,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K2" s="4" t="str">
-        <f>VLOOKUP(D2,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D2,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L2" s="3">
@@ -1093,7 +1104,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1120,15 +1131,15 @@
         <v>CA-0305-00145230/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f>VLOOKUP(D3,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D3,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f>VLOOKUP(D3,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D3,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f>VLOOKUP(D3,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D3,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L3" s="3">
@@ -1152,7 +1163,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1179,15 +1190,15 @@
         <v>CA-0305-00145232/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f>VLOOKUP(D4,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D4,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J4" s="4" t="str">
-        <f>VLOOKUP(D4,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D4,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f>VLOOKUP(D4,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D4,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L4" s="3">
@@ -1211,7 +1222,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1238,15 +1249,15 @@
         <v>CA-0305-00145231/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>VLOOKUP(D5,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D5,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f>VLOOKUP(D5,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D5,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K5" s="4" t="str">
-        <f>VLOOKUP(D5,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D5,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L5" s="3">
@@ -1270,7 +1281,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1297,15 +1308,15 @@
         <v>CA-0305-00145233/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f>VLOOKUP(D6,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D6,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f>VLOOKUP(D6,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D6,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f>VLOOKUP(D6,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D6,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L6" s="3">
@@ -1329,7 +1340,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1356,15 +1367,15 @@
         <v>CA-0305-00145234/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I7" s="4" t="str">
-        <f>VLOOKUP(D7,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D7,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f>VLOOKUP(D7,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D7,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f>VLOOKUP(D7,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D7,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L7" s="3">
@@ -1388,7 +1399,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1415,15 +1426,15 @@
         <v>CA-0305-00145235/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I8" s="4" t="str">
-        <f>VLOOKUP(D8,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D8,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f>VLOOKUP(D8,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D8,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K8" s="4" t="str">
-        <f>VLOOKUP(D8,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D8,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L8" s="3">
@@ -1447,7 +1458,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1474,15 +1485,15 @@
         <v>CA-0305-00145236/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I9" s="4" t="str">
-        <f>VLOOKUP(D9,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D9,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f>VLOOKUP(D9,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D9,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K9" s="4" t="str">
-        <f>VLOOKUP(D9,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D9,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L9" s="3">
@@ -1506,7 +1517,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1533,15 +1544,15 @@
         <v>CA-0305-00145237/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f>VLOOKUP(D10,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D10,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f>VLOOKUP(D10,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D10,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K10" s="4" t="str">
-        <f>VLOOKUP(D10,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D10,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L10" s="3">
@@ -1565,7 +1576,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1592,15 +1603,15 @@
         <v>CA-0305-00145238/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f>VLOOKUP(D11,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D11,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f>VLOOKUP(D11,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D11,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K11" s="4" t="str">
-        <f>VLOOKUP(D11,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D11,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L11" s="3">
@@ -1624,7 +1635,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1651,15 +1662,15 @@
         <v>CA-0305-00145240/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f>VLOOKUP(D12,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D12,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f>VLOOKUP(D12,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D12,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K12" s="4" t="str">
-        <f>VLOOKUP(D12,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D12,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L12" s="3">
@@ -1683,7 +1694,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1710,15 +1721,15 @@
         <v>CA-0305-00145239/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I13" s="4" t="str">
-        <f>VLOOKUP(D13,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D13,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f>VLOOKUP(D13,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D13,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K13" s="4" t="str">
-        <f>VLOOKUP(D13,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D13,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L13" s="3">
@@ -1742,7 +1753,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1769,15 +1780,15 @@
         <v>CA-0305-00145241/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f>VLOOKUP(D14,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D14,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f>VLOOKUP(D14,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D14,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K14" s="4" t="str">
-        <f>VLOOKUP(D14,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D14,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L14" s="3">
@@ -1801,7 +1812,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1828,15 +1839,15 @@
         <v>CA-0305-00145242/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f>VLOOKUP(D15,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D15,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f>VLOOKUP(D15,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D15,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K15" s="4" t="str">
-        <f>VLOOKUP(D15,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D15,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L15" s="3">
@@ -1860,7 +1871,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1887,15 +1898,15 @@
         <v>CA-0305-00145243/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f>VLOOKUP(D16,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D16,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f>VLOOKUP(D16,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D16,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K16" s="4" t="str">
-        <f>VLOOKUP(D16,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D16,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L16" s="3">
@@ -1919,7 +1930,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1946,15 +1957,15 @@
         <v>CA-0305-00145244/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f>VLOOKUP(D17,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D17,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f>VLOOKUP(D17,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D17,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K17" s="4" t="str">
-        <f>VLOOKUP(D17,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D17,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L17" s="3">
@@ -1978,7 +1989,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2005,15 +2016,15 @@
         <v>CA-0305-00145245/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f>VLOOKUP(D18,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D18,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f>VLOOKUP(D18,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D18,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K18" s="4" t="str">
-        <f>VLOOKUP(D18,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D18,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L18" s="3">
@@ -2037,7 +2048,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2064,15 +2075,15 @@
         <v>CA-0305-00145246/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I19" s="4" t="str">
-        <f>VLOOKUP(D19,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D19,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f>VLOOKUP(D19,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D19,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K19" s="4" t="str">
-        <f>VLOOKUP(D19,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D19,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L19" s="3">
@@ -2096,7 +2107,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2123,15 +2134,15 @@
         <v>CA-0305-00145248/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f>VLOOKUP(D20,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D20,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f>VLOOKUP(D20,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D20,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K20" s="4" t="str">
-        <f>VLOOKUP(D20,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D20,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L20" s="3">
@@ -2155,7 +2166,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2182,15 +2193,15 @@
         <v>CA-0305-00145247/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f>VLOOKUP(D21,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D21,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f>VLOOKUP(D21,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D21,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K21" s="4" t="str">
-        <f>VLOOKUP(D21,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D21,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L21" s="3">
@@ -2214,7 +2225,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2241,15 +2252,15 @@
         <v>CA-0305-00145251/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I22" s="4" t="str">
-        <f>VLOOKUP(D22,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D22,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f>VLOOKUP(D22,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D22,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K22" s="4" t="str">
-        <f>VLOOKUP(D22,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D22,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L22" s="3">
@@ -2273,7 +2284,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2300,15 +2311,15 @@
         <v>CA-0305-00145249/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f>VLOOKUP(D23,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D23,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f>VLOOKUP(D23,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D23,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K23" s="4" t="str">
-        <f>VLOOKUP(D23,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D23,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L23" s="3">
@@ -2332,7 +2343,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2359,15 +2370,15 @@
         <v>CA-0305-00145250/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I24" s="4" t="str">
-        <f>VLOOKUP(D24,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D24,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f>VLOOKUP(D24,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D24,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K24" s="4" t="str">
-        <f>VLOOKUP(D24,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D24,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L24" s="3">
@@ -2391,7 +2402,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2418,15 +2429,15 @@
         <v>CA-0305-00145254/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I25" s="4" t="str">
-        <f>VLOOKUP(D25,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D25,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f>VLOOKUP(D25,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D25,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K25" s="4" t="str">
-        <f>VLOOKUP(D25,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D25,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L25" s="3">
@@ -2450,7 +2461,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2477,15 +2488,15 @@
         <v>CA-0305-00145252/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I26" s="4" t="str">
-        <f>VLOOKUP(D26,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D26,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f>VLOOKUP(D26,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D26,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K26" s="4" t="str">
-        <f>VLOOKUP(D26,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D26,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L26" s="3">
@@ -2509,7 +2520,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2536,15 +2547,15 @@
         <v>CA-0305-00145253/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I27" s="4" t="str">
-        <f>VLOOKUP(D27,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D27,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f>VLOOKUP(D27,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D27,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K27" s="4" t="str">
-        <f>VLOOKUP(D27,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D27,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L27" s="3">
@@ -2568,7 +2579,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2595,15 +2606,15 @@
         <v>CA-0305-00145255/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I28" s="4" t="str">
-        <f>VLOOKUP(D28,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D28,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f>VLOOKUP(D28,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D28,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f>VLOOKUP(D28,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D28,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L28" s="3">
@@ -2627,7 +2638,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2654,15 +2665,15 @@
         <v>CA-0305-00146402/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I29" s="4" t="str">
-        <f>VLOOKUP(D29,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D29,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f>VLOOKUP(D29,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D29,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f>VLOOKUP(D29,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D29,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L29" s="3">
@@ -2686,7 +2697,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2713,15 +2724,15 @@
         <v>CA-0305-00146401/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I30" s="4" t="str">
-        <f>VLOOKUP(D30,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D30,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f>VLOOKUP(D30,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D30,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f>VLOOKUP(D30,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D30,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L30" s="3">
@@ -2745,7 +2756,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2772,15 +2783,15 @@
         <v>CA-0305-00146403/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I31" s="4" t="str">
-        <f>VLOOKUP(D31,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D31,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f>VLOOKUP(D31,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D31,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f>VLOOKUP(D31,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D31,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L31" s="3">
@@ -2804,7 +2815,7 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2831,15 +2842,15 @@
         <v>CA-0305-00146404/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I32" s="4" t="str">
-        <f>VLOOKUP(D32,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D32,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f>VLOOKUP(D32,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D32,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K32" s="4" t="str">
-        <f>VLOOKUP(D32,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D32,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L32" s="3">
@@ -2868,7 +2879,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
         <v>55</v>
@@ -2887,18 +2898,18 @@
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0305-00146405/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0306-00146405/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I33" s="4" t="str">
-        <f>VLOOKUP(D33,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D33,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f>VLOOKUP(D33,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D33,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K33" s="4" t="str">
-        <f>VLOOKUP(D33,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D33,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L33" s="3">
@@ -2927,7 +2938,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
@@ -2946,18 +2957,18 @@
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0305-00146406/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0306-00146406/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I34" s="4" t="str">
-        <f>VLOOKUP(D34,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D34,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f>VLOOKUP(D34,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D34,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K34" s="4" t="str">
-        <f>VLOOKUP(D34,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D34,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L34" s="3">
@@ -2986,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
@@ -3005,18 +3016,18 @@
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>CA-0305-00146410/CIA INDUSTRIAL CERVECERA</v>
+        <v>CA-0306-00146410/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I35" s="4" t="str">
-        <f>VLOOKUP(D35,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D35,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f>VLOOKUP(D35,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D35,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f>VLOOKUP(D35,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D35,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L35" s="3">
@@ -3045,7 +3056,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
@@ -3067,15 +3078,15 @@
         <v>CA-0305-00146412/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I36" s="4" t="str">
-        <f>VLOOKUP(D36,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D36,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f>VLOOKUP(D36,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D36,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f>VLOOKUP(D36,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D36,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L36" s="3">
@@ -3104,7 +3115,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>55</v>
@@ -3126,15 +3137,15 @@
         <v>CA-0305-00146411/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I37" s="4" t="str">
-        <f>VLOOKUP(D37,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D37,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f>VLOOKUP(D37,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D37,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K37" s="4" t="str">
-        <f>VLOOKUP(D37,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D37,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L37" s="3">
@@ -3163,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>55</v>
@@ -3185,15 +3196,15 @@
         <v>CA-0305-00146413/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I38" s="4" t="str">
-        <f>VLOOKUP(D38,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D38,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f>VLOOKUP(D38,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D38,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f>VLOOKUP(D38,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D38,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L38" s="3">
@@ -3217,12 +3228,12 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>55</v>
@@ -3244,15 +3255,15 @@
         <v>CA-0305-00146601/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I39" s="4" t="str">
-        <f>VLOOKUP(D39,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D39,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f>VLOOKUP(D39,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D39,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K39" s="4" t="str">
-        <f>VLOOKUP(D39,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D39,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L39" s="3">
@@ -3281,7 +3292,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -3303,15 +3314,15 @@
         <v>CA-0305-00146414/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I40" s="4" t="str">
-        <f>VLOOKUP(D40,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D40,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f>VLOOKUP(D40,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D40,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K40" s="4" t="str">
-        <f>VLOOKUP(D40,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D40,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L40" s="3">
@@ -3335,12 +3346,12 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
         <v>55</v>
@@ -3362,15 +3373,15 @@
         <v>CA-0305-00146602/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I41" s="4" t="str">
-        <f>VLOOKUP(D41,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D41,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f>VLOOKUP(D41,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D41,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K41" s="4" t="str">
-        <f>VLOOKUP(D41,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D41,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L41" s="3">
@@ -3399,7 +3410,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
@@ -3421,15 +3432,15 @@
         <v>CA-0305-00146407/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I42" s="4" t="str">
-        <f>VLOOKUP(D42,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D42,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f>VLOOKUP(D42,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D42,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K42" s="4" t="str">
-        <f>VLOOKUP(D42,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D42,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L42" s="3">
@@ -3458,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
@@ -3480,15 +3491,15 @@
         <v>CA-0305-00146409/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I43" s="4" t="str">
-        <f>VLOOKUP(D43,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D43,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f>VLOOKUP(D43,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D43,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K43" s="4" t="str">
-        <f>VLOOKUP(D43,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D43,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L43" s="3">
@@ -3517,7 +3528,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
         <v>55</v>
@@ -3539,15 +3550,15 @@
         <v>CA-0305-00146408/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I44" s="4" t="str">
-        <f>VLOOKUP(D44,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D44,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f>VLOOKUP(D44,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D44,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K44" s="4" t="str">
-        <f>VLOOKUP(D44,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D44,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L44" s="3">
@@ -3576,7 +3587,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
@@ -3598,15 +3609,15 @@
         <v>CA-0305-00146417/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I45" s="4" t="str">
-        <f>VLOOKUP(D45,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D45,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f>VLOOKUP(D45,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D45,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K45" s="4" t="str">
-        <f>VLOOKUP(D45,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D45,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L45" s="3">
@@ -3635,7 +3646,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
@@ -3657,15 +3668,15 @@
         <v>CA-0305-00146419/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I46" s="4" t="str">
-        <f>VLOOKUP(D46,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D46,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f>VLOOKUP(D46,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D46,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K46" s="4" t="str">
-        <f>VLOOKUP(D46,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D46,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L46" s="3">
@@ -3694,7 +3705,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
@@ -3716,15 +3727,15 @@
         <v>CA-0305-00146418/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I47" s="4" t="str">
-        <f>VLOOKUP(D47,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D47,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f>VLOOKUP(D47,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D47,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K47" s="4" t="str">
-        <f>VLOOKUP(D47,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D47,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L47" s="3">
@@ -3753,7 +3764,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -3775,15 +3786,15 @@
         <v>CA-0305-00146420/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I48" s="4" t="str">
-        <f>VLOOKUP(D48,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D48,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f>VLOOKUP(D48,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D48,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K48" s="4" t="str">
-        <f>VLOOKUP(D48,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D48,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L48" s="3">
@@ -3812,7 +3823,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>55</v>
@@ -3834,15 +3845,15 @@
         <v>CA-0305-00146421/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I49" s="4" t="str">
-        <f>VLOOKUP(D49,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D49,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f>VLOOKUP(D49,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D49,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K49" s="4" t="str">
-        <f>VLOOKUP(D49,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D49,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L49" s="3">
@@ -3871,7 +3882,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>55</v>
@@ -3893,15 +3904,15 @@
         <v>CA-0305-00146422/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I50" s="4" t="str">
-        <f>VLOOKUP(D50,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D50,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f>VLOOKUP(D50,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D50,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K50" s="4" t="str">
-        <f>VLOOKUP(D50,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D50,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L50" s="3">
@@ -3930,7 +3941,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>55</v>
@@ -3952,15 +3963,15 @@
         <v>CA-0305-00146423/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I51" s="4" t="str">
-        <f>VLOOKUP(D51,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D51,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f>VLOOKUP(D51,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D51,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f>VLOOKUP(D51,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D51,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L51" s="3">
@@ -3989,7 +4000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -4011,15 +4022,15 @@
         <v>CA-0305-00146424/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I52" s="4" t="str">
-        <f>VLOOKUP(D52,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D52,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J52" s="4" t="str">
-        <f>VLOOKUP(D52,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D52,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K52" s="4" t="str">
-        <f>VLOOKUP(D52,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D52,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L52" s="3">
@@ -4048,7 +4059,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
@@ -4070,15 +4081,15 @@
         <v>CA-0305-00146415/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I53" s="4" t="str">
-        <f>VLOOKUP(D53,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D53,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f>VLOOKUP(D53,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D53,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K53" s="4" t="str">
-        <f>VLOOKUP(D53,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D53,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L53" s="3">
@@ -4107,7 +4118,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
@@ -4129,15 +4140,15 @@
         <v>CA-0305-00146415/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I54" s="4" t="str">
-        <f>VLOOKUP(D54,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D54,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f>VLOOKUP(D54,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D54,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K54" s="4" t="str">
-        <f>VLOOKUP(D54,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D54,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L54" s="3">
@@ -4166,7 +4177,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
         <v>55</v>
@@ -4188,15 +4199,15 @@
         <v>CA-0305-00146416/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I55" s="4" t="str">
-        <f>VLOOKUP(D55,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D55,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f>VLOOKUP(D55,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D55,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K55" s="4" t="str">
-        <f>VLOOKUP(D55,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D55,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L55" s="3">
@@ -4225,7 +4236,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
         <v>55</v>
@@ -4247,15 +4258,15 @@
         <v>CA-0305-00146416/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I56" s="4" t="str">
-        <f>VLOOKUP(D56,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D56,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f>VLOOKUP(D56,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D56,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K56" s="4" t="str">
-        <f>VLOOKUP(D56,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D56,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L56" s="3">
@@ -4284,7 +4295,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
         <v>55</v>
@@ -4306,15 +4317,15 @@
         <v>CA-0305-00146321/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I57" s="4" t="str">
-        <f>VLOOKUP(D57,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D57,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f>VLOOKUP(D57,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D57,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K57" s="4" t="str">
-        <f>VLOOKUP(D57,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D57,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L57" s="3">
@@ -4343,7 +4354,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
         <v>55</v>
@@ -4365,15 +4376,15 @@
         <v>CA-0305-00146322/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I58" s="4" t="str">
-        <f>VLOOKUP(D58,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D58,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f>VLOOKUP(D58,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D58,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K58" s="4" t="str">
-        <f>VLOOKUP(D58,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D58,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L58" s="3">
@@ -4402,7 +4413,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
         <v>55</v>
@@ -4424,15 +4435,15 @@
         <v>CA-0305-00146323/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I59" s="4" t="str">
-        <f>VLOOKUP(D59,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D59,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f>VLOOKUP(D59,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D59,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f>VLOOKUP(D59,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D59,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L59" s="3">
@@ -4461,7 +4472,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
         <v>55</v>
@@ -4483,15 +4494,15 @@
         <v>CA-0305-00146324/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I60" s="4" t="str">
-        <f>VLOOKUP(D60,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D60,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f>VLOOKUP(D60,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D60,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K60" s="4" t="str">
-        <f>VLOOKUP(D60,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D60,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L60" s="3">
@@ -4520,7 +4531,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
         <v>55</v>
@@ -4542,15 +4553,15 @@
         <v>CA-0305-00146326/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I61" s="4" t="str">
-        <f>VLOOKUP(D61,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D61,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f>VLOOKUP(D61,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D61,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K61" s="4" t="str">
-        <f>VLOOKUP(D61,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D61,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L61" s="3">
@@ -4579,7 +4590,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>55</v>
@@ -4601,15 +4612,15 @@
         <v>CA-0305-00146327/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I62" s="4" t="str">
-        <f>VLOOKUP(D62,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D62,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f>VLOOKUP(D62,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D62,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K62" s="4" t="str">
-        <f>VLOOKUP(D62,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D62,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L62" s="3">
@@ -4638,7 +4649,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
         <v>55</v>
@@ -4660,15 +4671,15 @@
         <v>CA-0305-00146325/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I63" s="4" t="str">
-        <f>VLOOKUP(D63,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D63,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f>VLOOKUP(D63,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D63,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K63" s="4" t="str">
-        <f>VLOOKUP(D63,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D63,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L63" s="3">
@@ -4697,7 +4708,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>55</v>
@@ -4719,15 +4730,15 @@
         <v>CA-0305-00146328/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I64" s="4" t="str">
-        <f>VLOOKUP(D64,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D64,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f>VLOOKUP(D64,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D64,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K64" s="4" t="str">
-        <f>VLOOKUP(D64,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D64,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L64" s="3">
@@ -4756,7 +4767,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>55</v>
@@ -4778,15 +4789,15 @@
         <v>CA-0305-00146329/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I65" s="4" t="str">
-        <f>VLOOKUP(D65,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D65,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J65" s="4" t="str">
-        <f>VLOOKUP(D65,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D65,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K65" s="4" t="str">
-        <f>VLOOKUP(D65,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D65,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L65" s="3">
@@ -4815,7 +4826,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
         <v>55</v>
@@ -4837,15 +4848,15 @@
         <v>CA-0305-00146330/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I66" s="4" t="str">
-        <f>VLOOKUP(D66,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D66,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J66" s="4" t="str">
-        <f>VLOOKUP(D66,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D66,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f>VLOOKUP(D66,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D66,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L66" s="3">
@@ -4874,7 +4885,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
         <v>55</v>
@@ -4896,15 +4907,15 @@
         <v>CA-0305-00146332/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I67" s="4" t="str">
-        <f>VLOOKUP(D67,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D67,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f>VLOOKUP(D67,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D67,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f>VLOOKUP(D67,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D67,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L67" s="3">
@@ -4933,7 +4944,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
         <v>55</v>
@@ -4955,15 +4966,15 @@
         <v>CA-0305-00146331/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I68" s="4" t="str">
-        <f>VLOOKUP(D68,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D68,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f>VLOOKUP(D68,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D68,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f>VLOOKUP(D68,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D68,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L68" s="3">
@@ -4992,7 +5003,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
         <v>55</v>
@@ -5014,15 +5025,15 @@
         <v>CA-0305-00146335/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I69" s="4" t="str">
-        <f>VLOOKUP(D69,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D69,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J69" s="4" t="str">
-        <f>VLOOKUP(D69,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D69,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f>VLOOKUP(D69,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D69,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L69" s="3">
@@ -5051,7 +5062,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
         <v>55</v>
@@ -5073,15 +5084,15 @@
         <v>CA-0305-00146333/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I70" s="4" t="str">
-        <f>VLOOKUP(D70,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D70,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f>VLOOKUP(D70,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D70,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K70" s="4" t="str">
-        <f>VLOOKUP(D70,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D70,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L70" s="3">
@@ -5110,7 +5121,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
         <v>55</v>
@@ -5132,15 +5143,15 @@
         <v>CA-0305-00146334/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I71" s="4" t="str">
-        <f>VLOOKUP(D71,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D71,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f>VLOOKUP(D71,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D71,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K71" s="4" t="str">
-        <f>VLOOKUP(D71,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D71,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L71" s="3">
@@ -5169,7 +5180,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
         <v>55</v>
@@ -5191,15 +5202,15 @@
         <v>CA-0305-00146337/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I72" s="4" t="str">
-        <f>VLOOKUP(D72,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D72,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f>VLOOKUP(D72,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D72,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K72" s="4" t="str">
-        <f>VLOOKUP(D72,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D72,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L72" s="3">
@@ -5228,7 +5239,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
         <v>55</v>
@@ -5250,15 +5261,15 @@
         <v>CA-0305-00146336/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I73" s="4" t="str">
-        <f>VLOOKUP(D73,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D73,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J73" s="4" t="str">
-        <f>VLOOKUP(D73,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D73,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K73" s="4" t="str">
-        <f>VLOOKUP(D73,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D73,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L73" s="3">
@@ -5287,7 +5298,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
         <v>55</v>
@@ -5309,15 +5320,15 @@
         <v>CA-0305-00146345/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I74" s="4" t="str">
-        <f>VLOOKUP(D74,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D74,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J74" s="4" t="str">
-        <f>VLOOKUP(D74,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D74,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K74" s="4" t="str">
-        <f>VLOOKUP(D74,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D74,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L74" s="3">
@@ -5346,7 +5357,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
         <v>55</v>
@@ -5368,15 +5379,15 @@
         <v>CA-0305-00146346/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I75" s="4" t="str">
-        <f>VLOOKUP(D75,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D75,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f>VLOOKUP(D75,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D75,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K75" s="4" t="str">
-        <f>VLOOKUP(D75,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D75,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L75" s="3">
@@ -5405,7 +5416,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
         <v>55</v>
@@ -5427,15 +5438,15 @@
         <v>CA-0305-00146344/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I76" s="4" t="str">
-        <f>VLOOKUP(D76,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D76,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J76" s="4" t="str">
-        <f>VLOOKUP(D76,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D76,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K76" s="4" t="str">
-        <f>VLOOKUP(D76,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D76,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L76" s="3">
@@ -5464,7 +5475,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
         <v>55</v>
@@ -5486,15 +5497,15 @@
         <v>CA-0305-00146348/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I77" s="4" t="str">
-        <f>VLOOKUP(D77,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D77,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J77" s="4" t="str">
-        <f>VLOOKUP(D77,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D77,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K77" s="4" t="str">
-        <f>VLOOKUP(D77,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D77,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L77" s="3">
@@ -5523,7 +5534,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
         <v>55</v>
@@ -5545,15 +5556,15 @@
         <v>CA-0305-00146349/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I78" s="4" t="str">
-        <f>VLOOKUP(D78,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D78,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J78" s="4" t="str">
-        <f>VLOOKUP(D78,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D78,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K78" s="4" t="str">
-        <f>VLOOKUP(D78,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D78,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L78" s="3">
@@ -5582,7 +5593,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
         <v>55</v>
@@ -5604,15 +5615,15 @@
         <v>CA-0305-00146347/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I79" s="4" t="str">
-        <f>VLOOKUP(D79,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D79,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J79" s="4" t="str">
-        <f>VLOOKUP(D79,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D79,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K79" s="4" t="str">
-        <f>VLOOKUP(D79,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D79,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L79" s="3">
@@ -5641,7 +5652,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
         <v>55</v>
@@ -5663,15 +5674,15 @@
         <v>CA-0305-00146351/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I80" s="4" t="str">
-        <f>VLOOKUP(D80,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D80,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J80" s="4" t="str">
-        <f>VLOOKUP(D80,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D80,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K80" s="4" t="str">
-        <f>VLOOKUP(D80,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D80,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L80" s="3">
@@ -5700,7 +5711,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
         <v>55</v>
@@ -5722,15 +5733,15 @@
         <v>CA-0305-00146350/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I81" s="4" t="str">
-        <f>VLOOKUP(D81,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D81,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J81" s="4" t="str">
-        <f>VLOOKUP(D81,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D81,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K81" s="4" t="str">
-        <f>VLOOKUP(D81,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D81,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L81" s="3">
@@ -5759,7 +5770,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
         <v>55</v>
@@ -5781,15 +5792,15 @@
         <v>CA-0305-00146354/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I82" s="4" t="str">
-        <f>VLOOKUP(D82,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D82,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J82" s="4" t="str">
-        <f>VLOOKUP(D82,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D82,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K82" s="4" t="str">
-        <f>VLOOKUP(D82,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D82,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L82" s="3">
@@ -5818,7 +5829,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
         <v>55</v>
@@ -5840,15 +5851,15 @@
         <v>CA-0305-00146355/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I83" s="4" t="str">
-        <f>VLOOKUP(D83,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D83,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J83" s="4" t="str">
-        <f>VLOOKUP(D83,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D83,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K83" s="4" t="str">
-        <f>VLOOKUP(D83,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D83,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L83" s="3">
@@ -5877,7 +5888,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
         <v>55</v>
@@ -5899,15 +5910,15 @@
         <v>CA-0305-00146356/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I84" s="4" t="str">
-        <f>VLOOKUP(D84,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D84,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J84" s="4" t="str">
-        <f>VLOOKUP(D84,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D84,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K84" s="4" t="str">
-        <f>VLOOKUP(D84,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D84,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L84" s="3">
@@ -5936,7 +5947,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
         <v>55</v>
@@ -5958,15 +5969,15 @@
         <v>CA-0305-00146357/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I85" s="4" t="str">
-        <f>VLOOKUP(D85,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D85,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J85" s="4" t="str">
-        <f>VLOOKUP(D85,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D85,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K85" s="4" t="str">
-        <f>VLOOKUP(D85,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D85,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L85" s="3">
@@ -5995,7 +6006,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
         <v>55</v>
@@ -6017,15 +6028,15 @@
         <v>CA-0305-00146358/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I86" s="4" t="str">
-        <f>VLOOKUP(D86,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D86,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J86" s="4" t="str">
-        <f>VLOOKUP(D86,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D86,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K86" s="4" t="str">
-        <f>VLOOKUP(D86,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D86,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L86" s="3">
@@ -6054,7 +6065,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
         <v>55</v>
@@ -6076,15 +6087,15 @@
         <v>CA-0305-00146359/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I87" s="4" t="str">
-        <f>VLOOKUP(D87,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D87,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J87" s="4" t="str">
-        <f>VLOOKUP(D87,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D87,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K87" s="4" t="str">
-        <f>VLOOKUP(D87,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D87,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L87" s="3">
@@ -6113,7 +6124,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
         <v>55</v>
@@ -6135,15 +6146,15 @@
         <v>CA-0305-00146361/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I88" s="4" t="str">
-        <f>VLOOKUP(D88,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D88,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J88" s="4" t="str">
-        <f>VLOOKUP(D88,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D88,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K88" s="4" t="str">
-        <f>VLOOKUP(D88,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D88,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L88" s="3">
@@ -6172,7 +6183,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
         <v>55</v>
@@ -6194,15 +6205,15 @@
         <v>CA-0305-00146360/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I89" s="4" t="str">
-        <f>VLOOKUP(D89,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D89,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J89" s="4" t="str">
-        <f>VLOOKUP(D89,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D89,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K89" s="4" t="str">
-        <f>VLOOKUP(D89,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D89,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L89" s="3">
@@ -6231,7 +6242,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
         <v>55</v>
@@ -6253,15 +6264,15 @@
         <v>CA-0305-00146362/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I90" s="4" t="str">
-        <f>VLOOKUP(D90,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D90,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J90" s="4" t="str">
-        <f>VLOOKUP(D90,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D90,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K90" s="4" t="str">
-        <f>VLOOKUP(D90,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D90,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L90" s="3">
@@ -6290,7 +6301,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
         <v>55</v>
@@ -6312,15 +6323,15 @@
         <v>CA-0305-00146339/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I91" s="4" t="str">
-        <f>VLOOKUP(D91,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D91,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J91" s="4" t="str">
-        <f>VLOOKUP(D91,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D91,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K91" s="4" t="str">
-        <f>VLOOKUP(D91,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D91,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L91" s="3">
@@ -6349,7 +6360,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
         <v>55</v>
@@ -6371,15 +6382,15 @@
         <v>CA-0305-00146338/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I92" s="4" t="str">
-        <f>VLOOKUP(D92,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D92,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J92" s="4" t="str">
-        <f>VLOOKUP(D92,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D92,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K92" s="4" t="str">
-        <f>VLOOKUP(D92,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D92,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L92" s="3">
@@ -6408,7 +6419,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
         <v>55</v>
@@ -6430,15 +6441,15 @@
         <v>CA-0305-00146340/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I93" s="4" t="str">
-        <f>VLOOKUP(D93,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D93,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J93" s="4" t="str">
-        <f>VLOOKUP(D93,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D93,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K93" s="4" t="str">
-        <f>VLOOKUP(D93,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D93,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L93" s="3">
@@ -6467,7 +6478,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
         <v>55</v>
@@ -6489,15 +6500,15 @@
         <v>CA-0305-00146342/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I94" s="4" t="str">
-        <f>VLOOKUP(D94,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D94,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J94" s="4" t="str">
-        <f>VLOOKUP(D94,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D94,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K94" s="4" t="str">
-        <f>VLOOKUP(D94,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D94,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L94" s="3">
@@ -6526,7 +6537,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
         <v>55</v>
@@ -6548,15 +6559,15 @@
         <v>CA-0305-00146343/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I95" s="4" t="str">
-        <f>VLOOKUP(D95,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D95,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J95" s="4" t="str">
-        <f>VLOOKUP(D95,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D95,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K95" s="4" t="str">
-        <f>VLOOKUP(D95,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D95,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L95" s="3">
@@ -6585,7 +6596,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
         <v>55</v>
@@ -6607,15 +6618,15 @@
         <v>CA-0305-00146341/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I96" s="4" t="str">
-        <f>VLOOKUP(D96,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D96,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J96" s="4" t="str">
-        <f>VLOOKUP(D96,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D96,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K96" s="4" t="str">
-        <f>VLOOKUP(D96,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D96,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L96" s="3">
@@ -6644,7 +6655,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
         <v>55</v>
@@ -6666,15 +6677,15 @@
         <v>CA-0305-00146353/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I97" s="4" t="str">
-        <f>VLOOKUP(D97,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D97,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J97" s="4" t="str">
-        <f>VLOOKUP(D97,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D97,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K97" s="4" t="str">
-        <f>VLOOKUP(D97,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D97,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L97" s="3">
@@ -6703,7 +6714,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
         <v>55</v>
@@ -6725,15 +6736,15 @@
         <v>CA-0305-00146352/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I98" s="4" t="str">
-        <f>VLOOKUP(D98,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D98,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J98" s="4" t="str">
-        <f>VLOOKUP(D98,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D98,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K98" s="4" t="str">
-        <f>VLOOKUP(D98,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D98,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L98" s="3">
@@ -6762,7 +6773,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
         <v>55</v>
@@ -6784,15 +6795,15 @@
         <v>CA-0305-00146364/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I99" s="4" t="str">
-        <f>VLOOKUP(D99,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D99,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J99" s="4" t="str">
-        <f>VLOOKUP(D99,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D99,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K99" s="4" t="str">
-        <f>VLOOKUP(D99,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D99,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L99" s="3">
@@ -6821,7 +6832,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
         <v>55</v>
@@ -6843,15 +6854,15 @@
         <v>CA-0305-00146363/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I100" s="4" t="str">
-        <f>VLOOKUP(D100,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D100,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J100" s="4" t="str">
-        <f>VLOOKUP(D100,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D100,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K100" s="4" t="str">
-        <f>VLOOKUP(D100,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D100,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L100" s="3">
@@ -6880,7 +6891,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
         <v>55</v>
@@ -6902,15 +6913,15 @@
         <v>CA-0305-00146365/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I101" s="4" t="str">
-        <f>VLOOKUP(D101,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D101,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f>VLOOKUP(D101,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D101,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K101" s="4" t="str">
-        <f>VLOOKUP(D101,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D101,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L101" s="3">
@@ -6939,7 +6950,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>55</v>
@@ -6961,15 +6972,15 @@
         <v>CA-0305-00146367/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I102" s="4" t="str">
-        <f>VLOOKUP(D102,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D102,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J102" s="4" t="str">
-        <f>VLOOKUP(D102,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D102,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K102" s="4" t="str">
-        <f>VLOOKUP(D102,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D102,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L102" s="3">
@@ -6998,7 +7009,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
         <v>55</v>
@@ -7020,15 +7031,15 @@
         <v>CA-0305-00146366/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I103" s="4" t="str">
-        <f>VLOOKUP(D103,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D103,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J103" s="4" t="str">
-        <f>VLOOKUP(D103,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D103,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K103" s="4" t="str">
-        <f>VLOOKUP(D103,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D103,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L103" s="3">
@@ -7057,7 +7068,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
         <v>55</v>
@@ -7079,15 +7090,15 @@
         <v>CA-0305-00146368/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I104" s="4" t="str">
-        <f>VLOOKUP(D104,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D104,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J104" s="4" t="str">
-        <f>VLOOKUP(D104,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D104,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K104" s="4" t="str">
-        <f>VLOOKUP(D104,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D104,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L104" s="3">
@@ -7116,7 +7127,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
         <v>55</v>
@@ -7138,15 +7149,15 @@
         <v>CA-0305-00146369/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I105" s="4" t="str">
-        <f>VLOOKUP(D105,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D105,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J105" s="4" t="str">
-        <f>VLOOKUP(D105,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D105,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K105" s="4" t="str">
-        <f>VLOOKUP(D105,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D105,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L105" s="3">
@@ -7175,7 +7186,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
         <v>55</v>
@@ -7197,15 +7208,15 @@
         <v>CA-0305-00146370/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I106" s="4" t="str">
-        <f>VLOOKUP(D106,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D106,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J106" s="4" t="str">
-        <f>VLOOKUP(D106,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D106,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K106" s="4" t="str">
-        <f>VLOOKUP(D106,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D106,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L106" s="3">
@@ -7234,7 +7245,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
         <v>55</v>
@@ -7256,15 +7267,15 @@
         <v>CA-0305-00146371/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I107" s="4" t="str">
-        <f>VLOOKUP(D107,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D107,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J107" s="4" t="str">
-        <f>VLOOKUP(D107,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D107,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K107" s="4" t="str">
-        <f>VLOOKUP(D107,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D107,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L107" s="3">
@@ -7293,7 +7304,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
         <v>55</v>
@@ -7315,15 +7326,15 @@
         <v>CA-0305-00146372/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I108" s="4" t="str">
-        <f>VLOOKUP(D108,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D108,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J108" s="4" t="str">
-        <f>VLOOKUP(D108,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D108,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K108" s="4" t="str">
-        <f>VLOOKUP(D108,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D108,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L108" s="3">
@@ -7352,7 +7363,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
         <v>55</v>
@@ -7374,15 +7385,15 @@
         <v>CA-0305-00146373/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I109" s="4" t="str">
-        <f>VLOOKUP(D109,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D109,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J109" s="4" t="str">
-        <f>VLOOKUP(D109,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D109,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K109" s="4" t="str">
-        <f>VLOOKUP(D109,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D109,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L109" s="3">
@@ -7411,7 +7422,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C110" t="s">
         <v>55</v>
@@ -7433,15 +7444,15 @@
         <v>CA-0305-00146374/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I110" s="4" t="str">
-        <f>VLOOKUP(D110,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D110,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J110" s="4" t="str">
-        <f>VLOOKUP(D110,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D110,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K110" s="4" t="str">
-        <f>VLOOKUP(D110,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D110,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L110" s="3">
@@ -7470,7 +7481,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
         <v>55</v>
@@ -7492,15 +7503,15 @@
         <v>CA-0305-00146375/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I111" s="4" t="str">
-        <f>VLOOKUP(D111,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D111,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J111" s="4" t="str">
-        <f>VLOOKUP(D111,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D111,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K111" s="4" t="str">
-        <f>VLOOKUP(D111,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D111,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L111" s="3">
@@ -7529,7 +7540,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
         <v>55</v>
@@ -7551,15 +7562,15 @@
         <v>CA-0305-00146376/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I112" s="4" t="str">
-        <f>VLOOKUP(D112,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D112,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J112" s="4" t="str">
-        <f>VLOOKUP(D112,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D112,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K112" s="4" t="str">
-        <f>VLOOKUP(D112,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D112,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L112" s="3">
@@ -7588,7 +7599,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C113" t="s">
         <v>55</v>
@@ -7610,15 +7621,15 @@
         <v>CA-0305-00146377/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I113" s="4" t="str">
-        <f>VLOOKUP(D113,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D113,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J113" s="4" t="str">
-        <f>VLOOKUP(D113,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D113,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K113" s="4" t="str">
-        <f>VLOOKUP(D113,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D113,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L113" s="3">
@@ -7647,7 +7658,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s">
         <v>55</v>
@@ -7669,15 +7680,15 @@
         <v>CA-0305-00146378/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I114" s="4" t="str">
-        <f>VLOOKUP(D114,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D114,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J114" s="4" t="str">
-        <f>VLOOKUP(D114,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D114,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K114" s="4" t="str">
-        <f>VLOOKUP(D114,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D114,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L114" s="3">
@@ -7706,7 +7717,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C115" t="s">
         <v>55</v>
@@ -7728,15 +7739,15 @@
         <v>CA-0305-00146379/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I115" s="4" t="str">
-        <f>VLOOKUP(D115,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D115,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J115" s="4" t="str">
-        <f>VLOOKUP(D115,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D115,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K115" s="4" t="str">
-        <f>VLOOKUP(D115,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D115,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L115" s="3">
@@ -7765,7 +7776,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C116" t="s">
         <v>55</v>
@@ -7787,15 +7798,15 @@
         <v>CA-0305-00146380/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I116" s="4" t="str">
-        <f>VLOOKUP(D116,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D116,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J116" s="4" t="str">
-        <f>VLOOKUP(D116,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D116,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K116" s="4" t="str">
-        <f>VLOOKUP(D116,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D116,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L116" s="3">
@@ -7824,7 +7835,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C117" t="s">
         <v>55</v>
@@ -7846,15 +7857,15 @@
         <v>CA-0305-00146381/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I117" s="4" t="str">
-        <f>VLOOKUP(D117,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D117,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J117" s="4" t="str">
-        <f>VLOOKUP(D117,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D117,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K117" s="4" t="str">
-        <f>VLOOKUP(D117,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D117,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L117" s="3">
@@ -7883,7 +7894,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C118" t="s">
         <v>55</v>
@@ -7905,15 +7916,15 @@
         <v>CA-0305-00146382/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I118" s="4" t="str">
-        <f>VLOOKUP(D118,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D118,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J118" s="4" t="str">
-        <f>VLOOKUP(D118,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D118,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K118" s="4" t="str">
-        <f>VLOOKUP(D118,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D118,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L118" s="3">
@@ -7942,7 +7953,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s">
         <v>55</v>
@@ -7964,15 +7975,15 @@
         <v>CA-0305-00146383/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I119" s="4" t="str">
-        <f>VLOOKUP(D119,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D119,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J119" s="4" t="str">
-        <f>VLOOKUP(D119,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D119,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K119" s="4" t="str">
-        <f>VLOOKUP(D119,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D119,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L119" s="3">
@@ -8001,7 +8012,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C120" t="s">
         <v>55</v>
@@ -8023,15 +8034,15 @@
         <v>CA-0305-00146384/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I120" s="4" t="str">
-        <f>VLOOKUP(D120,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D120,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J120" s="4" t="str">
-        <f>VLOOKUP(D120,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D120,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K120" s="4" t="str">
-        <f>VLOOKUP(D120,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D120,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L120" s="3">
@@ -8060,7 +8071,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C121" t="s">
         <v>55</v>
@@ -8082,15 +8093,15 @@
         <v>CA-0305-00146385/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I121" s="4" t="str">
-        <f>VLOOKUP(D121,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D121,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J121" s="4" t="str">
-        <f>VLOOKUP(D121,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D121,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K121" s="4" t="str">
-        <f>VLOOKUP(D121,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D121,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L121" s="3">
@@ -8119,7 +8130,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s">
         <v>55</v>
@@ -8141,15 +8152,15 @@
         <v>CA-0305-00146386/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I122" s="4" t="str">
-        <f>VLOOKUP(D122,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D122,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J122" s="4" t="str">
-        <f>VLOOKUP(D122,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D122,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K122" s="4" t="str">
-        <f>VLOOKUP(D122,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D122,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L122" s="3">
@@ -8178,7 +8189,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C123" t="s">
         <v>55</v>
@@ -8200,15 +8211,15 @@
         <v>CA-0305-00146387/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I123" s="4" t="str">
-        <f>VLOOKUP(D123,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D123,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J123" s="4" t="str">
-        <f>VLOOKUP(D123,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D123,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K123" s="4" t="str">
-        <f>VLOOKUP(D123,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D123,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L123" s="3">
@@ -8237,7 +8248,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C124" t="s">
         <v>55</v>
@@ -8259,15 +8270,15 @@
         <v>CA-0305-00146390/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I124" s="4" t="str">
-        <f>VLOOKUP(D124,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D124,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J124" s="4" t="str">
-        <f>VLOOKUP(D124,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D124,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K124" s="4" t="str">
-        <f>VLOOKUP(D124,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D124,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L124" s="3">
@@ -8296,7 +8307,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
         <v>55</v>
@@ -8318,15 +8329,15 @@
         <v>CA-0305-00146388/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I125" s="4" t="str">
-        <f>VLOOKUP(D125,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D125,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J125" s="4" t="str">
-        <f>VLOOKUP(D125,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D125,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K125" s="4" t="str">
-        <f>VLOOKUP(D125,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D125,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L125" s="3">
@@ -8355,7 +8366,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C126" t="s">
         <v>55</v>
@@ -8377,15 +8388,15 @@
         <v>CA-0305-00146389/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I126" s="4" t="str">
-        <f>VLOOKUP(D126,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D126,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J126" s="4" t="str">
-        <f>VLOOKUP(D126,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D126,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K126" s="4" t="str">
-        <f>VLOOKUP(D126,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D126,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L126" s="3">
@@ -8409,12 +8420,12 @@
         <v>00010</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C127" t="s">
         <v>55</v>
@@ -8436,15 +8447,15 @@
         <v>CA-0305-00146600/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I127" s="4" t="str">
-        <f>VLOOKUP(D127,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D127,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J127" s="4" t="str">
-        <f>VLOOKUP(D127,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D127,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="K127" s="4" t="str">
-        <f>VLOOKUP(D127,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D127,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>LPAD</v>
       </c>
       <c r="L127" s="3">
@@ -8473,7 +8484,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C128" t="s">
         <v>55</v>
@@ -8495,15 +8506,15 @@
         <v>CA-0305-00146391/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I128" s="4" t="str">
-        <f>VLOOKUP(D128,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D128,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J128" s="4" t="str">
-        <f>VLOOKUP(D128,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D128,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K128" s="4" t="str">
-        <f>VLOOKUP(D128,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D128,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L128" s="3">
@@ -8532,7 +8543,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C129" t="s">
         <v>55</v>
@@ -8554,15 +8565,15 @@
         <v>CA-0305-00146392/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I129" s="4" t="str">
-        <f>VLOOKUP(D129,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D129,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J129" s="4" t="str">
-        <f>VLOOKUP(D129,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D129,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K129" s="4" t="str">
-        <f>VLOOKUP(D129,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D129,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L129" s="3">
@@ -8591,7 +8602,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C130" t="s">
         <v>55</v>
@@ -8613,15 +8624,15 @@
         <v>CA-0305-00146393/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I130" s="4" t="str">
-        <f>VLOOKUP(D130,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D130,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J130" s="4" t="str">
-        <f>VLOOKUP(D130,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D130,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K130" s="4" t="str">
-        <f>VLOOKUP(D130,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D130,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L130" s="3">
@@ -8650,7 +8661,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C131" t="s">
         <v>55</v>
@@ -8672,15 +8683,15 @@
         <v>CA-0305-00146394/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I131" s="4" t="str">
-        <f>VLOOKUP(D131,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D131,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J131" s="4" t="str">
-        <f>VLOOKUP(D131,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D131,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K131" s="4" t="str">
-        <f>VLOOKUP(D131,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D131,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L131" s="3">
@@ -8709,7 +8720,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C132" t="s">
         <v>55</v>
@@ -8731,15 +8742,15 @@
         <v>CA-0305-00146396/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I132" s="4" t="str">
-        <f>VLOOKUP(D132,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D132,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J132" s="4" t="str">
-        <f>VLOOKUP(D132,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D132,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K132" s="4" t="str">
-        <f>VLOOKUP(D132,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D132,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L132" s="3">
@@ -8768,7 +8779,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C133" t="s">
         <v>55</v>
@@ -8790,15 +8801,15 @@
         <v>CA-0305-00146395/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I133" s="4" t="str">
-        <f>VLOOKUP(D133,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D133,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J133" s="4" t="str">
-        <f>VLOOKUP(D133,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D133,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K133" s="4" t="str">
-        <f>VLOOKUP(D133,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D133,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L133" s="3">
@@ -8827,7 +8838,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C134" t="s">
         <v>55</v>
@@ -8849,15 +8860,15 @@
         <v>CA-0305-00146397/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I134" s="4" t="str">
-        <f>VLOOKUP(D134,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D134,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J134" s="4" t="str">
-        <f>VLOOKUP(D134,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D134,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K134" s="4" t="str">
-        <f>VLOOKUP(D134,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D134,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L134" s="3">
@@ -8886,7 +8897,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C135" t="s">
         <v>55</v>
@@ -8908,15 +8919,15 @@
         <v>CA-0305-00146399/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I135" s="4" t="str">
-        <f>VLOOKUP(D135,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D135,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J135" s="4" t="str">
-        <f>VLOOKUP(D135,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D135,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K135" s="4" t="str">
-        <f>VLOOKUP(D135,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D135,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L135" s="3">
@@ -8945,7 +8956,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C136" t="s">
         <v>55</v>
@@ -8967,15 +8978,15 @@
         <v>CA-0305-00146398/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I136" s="4" t="str">
-        <f>VLOOKUP(D136,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D136,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J136" s="4" t="str">
-        <f>VLOOKUP(D136,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D136,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K136" s="4" t="str">
-        <f>VLOOKUP(D136,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D136,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L136" s="3">
@@ -9004,7 +9015,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
         <v>55</v>
@@ -9026,15 +9037,15 @@
         <v>CA-0305-00146400/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I137" s="4" t="str">
-        <f>VLOOKUP(D137,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D137,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J137" s="4" t="str">
-        <f>VLOOKUP(D137,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D137,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K137" s="4" t="str">
-        <f>VLOOKUP(D137,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D137,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L137" s="3">
@@ -9063,10 +9074,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C138" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D138" t="s">
         <v>16</v>
@@ -9085,15 +9096,15 @@
         <v>CA-0301-00016235/CIA INDUSTRIAL CERVECERA</v>
       </c>
       <c r="I138" s="4" t="str">
-        <f>VLOOKUP(D138,domicilios!$B$1:$D$3,2,FALSE)</f>
+        <f>VLOOKUP(D138,domicilios!$C$1:$E$3,2,FALSE)</f>
         <v>0001</v>
       </c>
       <c r="J138" s="4" t="str">
-        <f>VLOOKUP(D138,domicilios!$B$1:$D$3,3,FALSE)</f>
+        <f>VLOOKUP(D138,domicilios!$C$1:$E$3,3,FALSE)</f>
         <v>0000</v>
       </c>
       <c r="K138" s="4" t="str">
-        <f>VLOOKUP(D138,domicilios!$B$1:$E$3,4,FALSE)</f>
+        <f>VLOOKUP(D138,domicilios!$C$1:$F$3,4,FALSE)</f>
         <v>MAAD</v>
       </c>
       <c r="L138" s="3">
@@ -12070,120 +12081,7 @@
       <c r="G466" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P466" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="LARREA 716, 1900 - La Plata - Buenos Aires"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters blank="1">
-        <filter val="100"/>
-        <filter val="101"/>
-        <filter val="102"/>
-        <filter val="103"/>
-        <filter val="104"/>
-        <filter val="105"/>
-        <filter val="106"/>
-        <filter val="107"/>
-        <filter val="108"/>
-        <filter val="109"/>
-        <filter val="110"/>
-        <filter val="111"/>
-        <filter val="112"/>
-        <filter val="113"/>
-        <filter val="114"/>
-        <filter val="115"/>
-        <filter val="116"/>
-        <filter val="117"/>
-        <filter val="118"/>
-        <filter val="119"/>
-        <filter val="120"/>
-        <filter val="121"/>
-        <filter val="122"/>
-        <filter val="123"/>
-        <filter val="124"/>
-        <filter val="125"/>
-        <filter val="126"/>
-        <filter val="128"/>
-        <filter val="129"/>
-        <filter val="130"/>
-        <filter val="131"/>
-        <filter val="132"/>
-        <filter val="133"/>
-        <filter val="134"/>
-        <filter val="135"/>
-        <filter val="136"/>
-        <filter val="137"/>
-        <filter val="138"/>
-        <filter val="33"/>
-        <filter val="34"/>
-        <filter val="35"/>
-        <filter val="36"/>
-        <filter val="37"/>
-        <filter val="38"/>
-        <filter val="40"/>
-        <filter val="42"/>
-        <filter val="43"/>
-        <filter val="44"/>
-        <filter val="45"/>
-        <filter val="46"/>
-        <filter val="47"/>
-        <filter val="48"/>
-        <filter val="49"/>
-        <filter val="50"/>
-        <filter val="51"/>
-        <filter val="52"/>
-        <filter val="53"/>
-        <filter val="54"/>
-        <filter val="55"/>
-        <filter val="56"/>
-        <filter val="57"/>
-        <filter val="58"/>
-        <filter val="59"/>
-        <filter val="60"/>
-        <filter val="61"/>
-        <filter val="62"/>
-        <filter val="63"/>
-        <filter val="64"/>
-        <filter val="65"/>
-        <filter val="66"/>
-        <filter val="67"/>
-        <filter val="68"/>
-        <filter val="69"/>
-        <filter val="70"/>
-        <filter val="71"/>
-        <filter val="72"/>
-        <filter val="73"/>
-        <filter val="74"/>
-        <filter val="75"/>
-        <filter val="76"/>
-        <filter val="77"/>
-        <filter val="78"/>
-        <filter val="79"/>
-        <filter val="80"/>
-        <filter val="81"/>
-        <filter val="82"/>
-        <filter val="83"/>
-        <filter val="84"/>
-        <filter val="85"/>
-        <filter val="86"/>
-        <filter val="87"/>
-        <filter val="88"/>
-        <filter val="89"/>
-        <filter val="90"/>
-        <filter val="91"/>
-        <filter val="92"/>
-        <filter val="93"/>
-        <filter val="94"/>
-        <filter val="95"/>
-        <filter val="96"/>
-        <filter val="97"/>
-        <filter val="98"/>
-        <filter val="99"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P466" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12191,75 +12089,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB37861-0A42-42D0-8451-912EC6D8EFE2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <f>TEXT(1,"0000")</f>
         <v>0001</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <f>TEXT(0,"0000")</f>
         <v>0000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="str">
-        <f>TEXT(1,"0000")</f>
-        <v>0001</v>
       </c>
       <c r="D3" t="str">
         <f>TEXT(1,"0000")</f>
         <v>0001</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="str">
+        <f>TEXT(1,"0000")</f>
+        <v>0001</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2027977</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="str">
+        <f>TEXT(16,"0000")</f>
+        <v>0016</v>
+      </c>
+      <c r="E4" t="str">
+        <f>TEXT(2,"0000")</f>
+        <v>0002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>